--- a/static/data/quizz.xlsx
+++ b/static/data/quizz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DERS\Archive\web\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD97DE00-B197-4CDD-9133-4136502D1A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF833B5-3555-4D81-8288-9698279374C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,7 +820,7 @@
   <dimension ref="A1:BE24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1010,9 @@
       <c r="F2" s="3">
         <v>92</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="2"/>
@@ -1078,7 +1080,9 @@
       <c r="F3" s="3">
         <v>92</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="3">
+        <v>97</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="2"/>
@@ -1146,7 +1150,9 @@
       <c r="F4" s="3">
         <v>92</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3">
+        <v>100</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="2"/>
@@ -1214,7 +1220,9 @@
       <c r="F5" s="3">
         <v>96</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="2"/>
@@ -1282,7 +1290,9 @@
       <c r="F6" s="3">
         <v>92</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3">
+        <v>87</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
@@ -1350,7 +1360,9 @@
       <c r="F7" s="3">
         <v>84</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3">
+        <v>94</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="2"/>
@@ -1418,7 +1430,9 @@
       <c r="F8" s="3">
         <v>84</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3">
+        <v>94</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="2"/>
@@ -1486,7 +1500,9 @@
       <c r="F9" s="3">
         <v>92</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="3">
+        <v>90</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="2"/>
@@ -1554,7 +1570,9 @@
       <c r="F10" s="3">
         <v>88</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3">
+        <v>100</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="2"/>
@@ -1622,7 +1640,9 @@
       <c r="F11" s="3">
         <v>96</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="3">
+        <v>100</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="2"/>
@@ -1690,7 +1710,9 @@
       <c r="F12" s="3">
         <v>96</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="3">
+        <v>100</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="2"/>
@@ -1758,7 +1780,9 @@
       <c r="F13" s="3">
         <v>80</v>
       </c>
-      <c r="G13" s="3"/>
+      <c r="G13" s="3">
+        <v>94</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="2"/>
@@ -1826,7 +1850,9 @@
       <c r="F14" s="3">
         <v>88</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="3">
+        <v>90</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="2"/>
@@ -1894,7 +1920,9 @@
       <c r="F15" s="3">
         <v>92</v>
       </c>
-      <c r="G15" s="3"/>
+      <c r="G15" s="3">
+        <v>97</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="2"/>
@@ -1962,7 +1990,9 @@
       <c r="F16" s="3">
         <v>96</v>
       </c>
-      <c r="G16" s="3"/>
+      <c r="G16" s="3">
+        <v>94</v>
+      </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="12"/>
@@ -2030,7 +2060,9 @@
       <c r="F17" s="3">
         <v>92</v>
       </c>
-      <c r="G17" s="3"/>
+      <c r="G17" s="3">
+        <v>23</v>
+      </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="2"/>
@@ -2098,7 +2130,9 @@
       <c r="F18" s="3">
         <v>88</v>
       </c>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="2"/>
@@ -2166,7 +2200,9 @@
       <c r="F19" s="3">
         <v>76</v>
       </c>
-      <c r="G19" s="3"/>
+      <c r="G19" s="3">
+        <v>84</v>
+      </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="2"/>
@@ -2234,7 +2270,9 @@
       <c r="F20" s="3">
         <v>84</v>
       </c>
-      <c r="G20" s="3"/>
+      <c r="G20" s="3">
+        <v>84</v>
+      </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="2"/>
@@ -2302,7 +2340,9 @@
       <c r="F21" s="3">
         <v>72</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="3">
+        <v>65</v>
+      </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="2"/>
@@ -2370,7 +2410,9 @@
       <c r="F22" s="3">
         <v>68</v>
       </c>
-      <c r="G22" s="3"/>
+      <c r="G22" s="3">
+        <v>68</v>
+      </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="2"/>
@@ -2438,7 +2480,9 @@
       <c r="F23" s="3">
         <v>0</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -2506,7 +2550,9 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="2"/>

--- a/static/data/quizz.xlsx
+++ b/static/data/quizz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DERS\Archive\web\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF833B5-3555-4D81-8288-9698279374C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C597447-A063-45E4-AB0B-047914097D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,7 +820,7 @@
   <dimension ref="A1:BE24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,7 +1011,7 @@
         <v>92</v>
       </c>
       <c r="G2" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1221,7 +1221,7 @@
         <v>96</v>
       </c>
       <c r="G5" s="3">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -2131,7 +2131,7 @@
         <v>88</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="C24" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E24" s="2">
         <v>0</v>

--- a/static/data/quizz.xlsx
+++ b/static/data/quizz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DERS\Archive\web\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C597447-A063-45E4-AB0B-047914097D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FDC2E7-E5C4-48D7-A7C3-ED21206A1AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,7 +820,7 @@
   <dimension ref="A1:BE24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2545,7 +2545,7 @@
         <v>73</v>
       </c>
       <c r="E24" s="2">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>

--- a/static/data/quizz.xlsx
+++ b/static/data/quizz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DERS\Archive\web\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FDC2E7-E5C4-48D7-A7C3-ED21206A1AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C686333-3CD2-4FCA-8D41-B5687716134E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,7 +820,7 @@
   <dimension ref="A1:BE24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2469,13 +2469,13 @@
         <v>0</v>
       </c>
       <c r="C23" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>

--- a/static/data/quizz.xlsx
+++ b/static/data/quizz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DERS\Archive\web\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C686333-3CD2-4FCA-8D41-B5687716134E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47E1750-C288-4F76-AA59-DD5F93FD30DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,7 +820,7 @@
   <dimension ref="A1:BE24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1013,9 @@
       <c r="G2" s="3">
         <v>100</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3">
+        <v>98</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="2"/>
       <c r="K2" s="3"/>
@@ -1083,7 +1085,9 @@
       <c r="G3" s="3">
         <v>97</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <v>98</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="2"/>
       <c r="K3" s="3"/>
@@ -1153,7 +1157,9 @@
       <c r="G4" s="3">
         <v>100</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3">
+        <v>98</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="2"/>
       <c r="K4" s="3"/>
@@ -1223,7 +1229,9 @@
       <c r="G5" s="3">
         <v>100</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="3">
+        <v>98</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="2"/>
       <c r="K5" s="3"/>
@@ -1293,7 +1301,9 @@
       <c r="G6" s="3">
         <v>87</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="3">
+        <v>100</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
@@ -1363,7 +1373,9 @@
       <c r="G7" s="3">
         <v>94</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3">
+        <v>100</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="2"/>
       <c r="K7" s="3"/>
@@ -1433,7 +1445,9 @@
       <c r="G8" s="3">
         <v>94</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="3">
+        <v>100</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="2"/>
       <c r="K8" s="3"/>
@@ -1503,7 +1517,9 @@
       <c r="G9" s="3">
         <v>90</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="3">
+        <v>93</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="2"/>
       <c r="K9" s="3"/>
@@ -1573,7 +1589,9 @@
       <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3">
+        <v>100</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="2"/>
       <c r="K10" s="3"/>
@@ -1643,7 +1661,9 @@
       <c r="G11" s="3">
         <v>100</v>
       </c>
-      <c r="H11" s="3"/>
+      <c r="H11" s="3">
+        <v>98</v>
+      </c>
       <c r="I11" s="3"/>
       <c r="J11" s="2"/>
       <c r="K11" s="3"/>
@@ -1713,7 +1733,9 @@
       <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3">
+        <v>98</v>
+      </c>
       <c r="I12" s="3"/>
       <c r="J12" s="2"/>
       <c r="K12" s="3"/>
@@ -1783,7 +1805,9 @@
       <c r="G13" s="3">
         <v>94</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="3">
+        <v>93</v>
+      </c>
       <c r="I13" s="3"/>
       <c r="J13" s="2"/>
       <c r="K13" s="3"/>
@@ -1853,7 +1877,9 @@
       <c r="G14" s="3">
         <v>90</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="3">
+        <v>93</v>
+      </c>
       <c r="I14" s="3"/>
       <c r="J14" s="2"/>
       <c r="K14" s="3"/>
@@ -1923,7 +1949,9 @@
       <c r="G15" s="3">
         <v>97</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="3">
+        <v>100</v>
+      </c>
       <c r="I15" s="3"/>
       <c r="J15" s="2"/>
       <c r="K15" s="3"/>
@@ -1993,7 +2021,9 @@
       <c r="G16" s="3">
         <v>94</v>
       </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3">
+        <v>98</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="12"/>
       <c r="K16" s="3"/>
@@ -2063,7 +2093,9 @@
       <c r="G17" s="3">
         <v>23</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3">
+        <v>78</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="2"/>
       <c r="K17" s="3"/>
@@ -2133,7 +2165,9 @@
       <c r="G18" s="3">
         <v>61</v>
       </c>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3">
+        <v>53</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="2"/>
       <c r="K18" s="3"/>
@@ -2203,7 +2237,9 @@
       <c r="G19" s="3">
         <v>84</v>
       </c>
-      <c r="H19" s="3"/>
+      <c r="H19" s="3">
+        <v>90</v>
+      </c>
       <c r="I19" s="3"/>
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
@@ -2273,7 +2309,9 @@
       <c r="G20" s="3">
         <v>84</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3">
+        <v>88</v>
+      </c>
       <c r="I20" s="3"/>
       <c r="J20" s="2"/>
       <c r="K20" s="3"/>
@@ -2343,7 +2381,9 @@
       <c r="G21" s="3">
         <v>65</v>
       </c>
-      <c r="H21" s="3"/>
+      <c r="H21" s="3">
+        <v>78</v>
+      </c>
       <c r="I21" s="3"/>
       <c r="J21" s="2"/>
       <c r="K21" s="3"/>
@@ -2413,7 +2453,9 @@
       <c r="G22" s="3">
         <v>68</v>
       </c>
-      <c r="H22" s="3"/>
+      <c r="H22" s="3">
+        <v>65</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="2"/>
       <c r="K22" s="3"/>
@@ -2466,7 +2508,7 @@
         <v>75</v>
       </c>
       <c r="B23" s="3">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C23" s="3">
         <v>90</v>
@@ -2483,7 +2525,9 @@
       <c r="G23" s="3">
         <v>0</v>
       </c>
-      <c r="H23" s="3"/>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -2553,7 +2597,9 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3"/>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="2"/>
       <c r="K24" s="3"/>

--- a/static/data/quizz.xlsx
+++ b/static/data/quizz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DERS\Archive\web\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47E1750-C288-4F76-AA59-DD5F93FD30DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EA7D08-99DB-4303-8F95-CC9F6C90D02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,7 +820,7 @@
   <dimension ref="A1:BE24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2091,7 +2091,7 @@
         <v>92</v>
       </c>
       <c r="G17" s="3">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="H17" s="3">
         <v>78</v>

--- a/static/data/quizz.xlsx
+++ b/static/data/quizz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DERS\Archive\web\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EA7D08-99DB-4303-8F95-CC9F6C90D02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D43BE87-86D7-4E05-815C-014E84A4C4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023-2024" sheetId="2" r:id="rId1"/>
@@ -820,7 +820,7 @@
   <dimension ref="A1:BE24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,7 +1016,9 @@
       <c r="H2" s="3">
         <v>98</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3">
+        <v>93</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -1088,7 +1090,9 @@
       <c r="H3" s="3">
         <v>98</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3">
+        <v>97</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -1160,7 +1164,9 @@
       <c r="H4" s="3">
         <v>98</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3">
+        <v>100</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -1232,7 +1238,9 @@
       <c r="H5" s="3">
         <v>98</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3">
+        <v>93</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1304,7 +1312,9 @@
       <c r="H6" s="3">
         <v>100</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3">
+        <v>97</v>
+      </c>
       <c r="J6" s="2"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1376,7 +1386,9 @@
       <c r="H7" s="3">
         <v>100</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3">
+        <v>97</v>
+      </c>
       <c r="J7" s="2"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -1448,7 +1460,9 @@
       <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3">
+        <v>100</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -1520,7 +1534,9 @@
       <c r="H9" s="3">
         <v>93</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3">
+        <v>90</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -1592,7 +1608,9 @@
       <c r="H10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3">
+        <v>97</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
@@ -1664,7 +1682,9 @@
       <c r="H11" s="3">
         <v>98</v>
       </c>
-      <c r="I11" s="3"/>
+      <c r="I11" s="3">
+        <v>100</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
@@ -1736,7 +1756,9 @@
       <c r="H12" s="3">
         <v>98</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3">
+        <v>93</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1808,7 +1830,9 @@
       <c r="H13" s="3">
         <v>93</v>
       </c>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3">
+        <v>77</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -1880,7 +1904,9 @@
       <c r="H14" s="3">
         <v>93</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3">
+        <v>87</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -1952,7 +1978,9 @@
       <c r="H15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3">
+        <v>100</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2024,7 +2052,9 @@
       <c r="H16" s="3">
         <v>98</v>
       </c>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3">
+        <v>87</v>
+      </c>
       <c r="J16" s="12"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2096,7 +2126,9 @@
       <c r="H17" s="3">
         <v>78</v>
       </c>
-      <c r="I17" s="3"/>
+      <c r="I17" s="3">
+        <v>83</v>
+      </c>
       <c r="J17" s="2"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
@@ -2168,7 +2200,9 @@
       <c r="H18" s="3">
         <v>53</v>
       </c>
-      <c r="I18" s="3"/>
+      <c r="I18" s="3">
+        <v>70</v>
+      </c>
       <c r="J18" s="2"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
@@ -2240,7 +2274,9 @@
       <c r="H19" s="3">
         <v>90</v>
       </c>
-      <c r="I19" s="3"/>
+      <c r="I19" s="3">
+        <v>97</v>
+      </c>
       <c r="J19" s="2"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
@@ -2312,7 +2348,9 @@
       <c r="H20" s="3">
         <v>88</v>
       </c>
-      <c r="I20" s="3"/>
+      <c r="I20" s="3">
+        <v>77</v>
+      </c>
       <c r="J20" s="2"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -2384,7 +2422,9 @@
       <c r="H21" s="3">
         <v>78</v>
       </c>
-      <c r="I21" s="3"/>
+      <c r="I21" s="3">
+        <v>77</v>
+      </c>
       <c r="J21" s="2"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
@@ -2456,7 +2496,9 @@
       <c r="H22" s="3">
         <v>65</v>
       </c>
-      <c r="I22" s="3"/>
+      <c r="I22" s="3">
+        <v>77</v>
+      </c>
       <c r="J22" s="2"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -2528,7 +2570,9 @@
       <c r="H23" s="3">
         <v>0</v>
       </c>
-      <c r="I23" s="3"/>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
@@ -2600,7 +2644,9 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3"/>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>

--- a/static/data/quizz.xlsx
+++ b/static/data/quizz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DERS\Archive\web\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D43BE87-86D7-4E05-815C-014E84A4C4FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43714E62-2EE9-4DEB-8336-D111B9E5AC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31335" yWindow="225" windowWidth="6765" windowHeight="17055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023-2024" sheetId="2" r:id="rId1"/>
@@ -820,7 +820,7 @@
   <dimension ref="A1:BE24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2624,7 +2624,7 @@
         <v>74</v>
       </c>
       <c r="B24" s="3">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="C24" s="3">
         <v>80</v>

--- a/static/data/quizz.xlsx
+++ b/static/data/quizz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DERS\Archive\web\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43714E62-2EE9-4DEB-8336-D111B9E5AC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527500A5-26DB-416E-8E93-4295DD847743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31335" yWindow="225" windowWidth="6765" windowHeight="17055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023-2024" sheetId="2" r:id="rId1"/>
@@ -820,7 +820,7 @@
   <dimension ref="A1:BE24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="BD5" sqref="BD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,7 +1019,9 @@
       <c r="I2" s="3">
         <v>93</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2">
+        <v>97</v>
+      </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -1093,7 +1095,9 @@
       <c r="I3" s="3">
         <v>97</v>
       </c>
-      <c r="J3" s="2"/>
+      <c r="J3" s="2">
+        <v>94</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -1167,7 +1171,9 @@
       <c r="I4" s="3">
         <v>100</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2">
+        <v>97</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
@@ -1241,7 +1247,9 @@
       <c r="I5" s="3">
         <v>93</v>
       </c>
-      <c r="J5" s="2"/>
+      <c r="J5" s="2">
+        <v>97</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -1315,7 +1323,9 @@
       <c r="I6" s="3">
         <v>97</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2">
+        <v>97</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -1389,7 +1399,9 @@
       <c r="I7" s="3">
         <v>97</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="2">
+        <v>97</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -1463,7 +1475,9 @@
       <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="J8" s="2">
+        <v>97</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
@@ -1537,7 +1551,9 @@
       <c r="I9" s="3">
         <v>90</v>
       </c>
-      <c r="J9" s="2"/>
+      <c r="J9" s="2">
+        <v>94</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -1611,7 +1627,9 @@
       <c r="I10" s="3">
         <v>97</v>
       </c>
-      <c r="J10" s="2"/>
+      <c r="J10" s="2">
+        <v>97</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -1685,7 +1703,9 @@
       <c r="I11" s="3">
         <v>100</v>
       </c>
-      <c r="J11" s="2"/>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1759,7 +1779,9 @@
       <c r="I12" s="3">
         <v>93</v>
       </c>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2">
+        <v>97</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -1833,7 +1855,9 @@
       <c r="I13" s="3">
         <v>77</v>
       </c>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2">
+        <v>97</v>
+      </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -1907,7 +1931,9 @@
       <c r="I14" s="3">
         <v>87</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2">
+        <v>83</v>
+      </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -1981,7 +2007,9 @@
       <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="2">
+        <v>100</v>
+      </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -2055,7 +2083,9 @@
       <c r="I16" s="3">
         <v>87</v>
       </c>
-      <c r="J16" s="12"/>
+      <c r="J16" s="12">
+        <v>91</v>
+      </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -2129,7 +2159,9 @@
       <c r="I17" s="3">
         <v>83</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" s="2">
+        <v>83</v>
+      </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -2203,7 +2235,9 @@
       <c r="I18" s="3">
         <v>70</v>
       </c>
-      <c r="J18" s="2"/>
+      <c r="J18" s="2">
+        <v>71</v>
+      </c>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -2277,7 +2311,9 @@
       <c r="I19" s="3">
         <v>97</v>
       </c>
-      <c r="J19" s="2"/>
+      <c r="J19" s="2">
+        <v>94</v>
+      </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
@@ -2351,7 +2387,9 @@
       <c r="I20" s="3">
         <v>77</v>
       </c>
-      <c r="J20" s="2"/>
+      <c r="J20" s="2">
+        <v>71</v>
+      </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
@@ -2425,7 +2463,9 @@
       <c r="I21" s="3">
         <v>77</v>
       </c>
-      <c r="J21" s="2"/>
+      <c r="J21" s="2">
+        <v>83</v>
+      </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -2499,7 +2539,9 @@
       <c r="I22" s="3">
         <v>77</v>
       </c>
-      <c r="J22" s="2"/>
+      <c r="J22" s="2">
+        <v>74</v>
+      </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -2573,7 +2615,9 @@
       <c r="I23" s="3">
         <v>0</v>
       </c>
-      <c r="J23" s="3"/>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -2647,7 +2691,9 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="2"/>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>

--- a/static/data/quizz.xlsx
+++ b/static/data/quizz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DERS\Archive\web\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527500A5-26DB-416E-8E93-4295DD847743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D411F85-CC75-402A-8526-066AFFD16E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,7 +820,7 @@
   <dimension ref="A1:BE24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="BD5" sqref="BD5"/>
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,7 +1022,9 @@
       <c r="J2" s="2">
         <v>97</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="3">
+        <v>93</v>
+      </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -1098,7 +1100,9 @@
       <c r="J3" s="2">
         <v>94</v>
       </c>
-      <c r="K3" s="3"/>
+      <c r="K3" s="3">
+        <v>93</v>
+      </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -1174,7 +1178,9 @@
       <c r="J4" s="2">
         <v>97</v>
       </c>
-      <c r="K4" s="3"/>
+      <c r="K4" s="3">
+        <v>97</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -1250,7 +1256,9 @@
       <c r="J5" s="2">
         <v>97</v>
       </c>
-      <c r="K5" s="3"/>
+      <c r="K5" s="3">
+        <v>87</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -1326,7 +1334,9 @@
       <c r="J6" s="2">
         <v>97</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="3">
+        <v>90</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -1402,7 +1412,9 @@
       <c r="J7" s="2">
         <v>97</v>
       </c>
-      <c r="K7" s="3"/>
+      <c r="K7" s="3">
+        <v>97</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1478,7 +1490,9 @@
       <c r="J8" s="2">
         <v>97</v>
       </c>
-      <c r="K8" s="3"/>
+      <c r="K8" s="3">
+        <v>90</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1554,7 +1568,9 @@
       <c r="J9" s="2">
         <v>94</v>
       </c>
-      <c r="K9" s="3"/>
+      <c r="K9" s="3">
+        <v>90</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
@@ -1630,7 +1646,9 @@
       <c r="J10" s="2">
         <v>97</v>
       </c>
-      <c r="K10" s="3"/>
+      <c r="K10" s="3">
+        <v>100</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -1704,9 +1722,11 @@
         <v>100</v>
       </c>
       <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="K11" s="3">
+        <v>97</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -1782,7 +1802,9 @@
       <c r="J12" s="2">
         <v>97</v>
       </c>
-      <c r="K12" s="3"/>
+      <c r="K12" s="3">
+        <v>100</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -1858,7 +1880,9 @@
       <c r="J13" s="2">
         <v>97</v>
       </c>
-      <c r="K13" s="3"/>
+      <c r="K13" s="3">
+        <v>70</v>
+      </c>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -1934,7 +1958,9 @@
       <c r="J14" s="2">
         <v>83</v>
       </c>
-      <c r="K14" s="3"/>
+      <c r="K14" s="3">
+        <v>80</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -2010,7 +2036,9 @@
       <c r="J15" s="2">
         <v>100</v>
       </c>
-      <c r="K15" s="3"/>
+      <c r="K15" s="3">
+        <v>87</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
@@ -2086,7 +2114,9 @@
       <c r="J16" s="12">
         <v>91</v>
       </c>
-      <c r="K16" s="3"/>
+      <c r="K16" s="3">
+        <v>93</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
@@ -2162,7 +2192,9 @@
       <c r="J17" s="2">
         <v>83</v>
       </c>
-      <c r="K17" s="3"/>
+      <c r="K17" s="3">
+        <v>83</v>
+      </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -2238,7 +2270,9 @@
       <c r="J18" s="2">
         <v>71</v>
       </c>
-      <c r="K18" s="3"/>
+      <c r="K18" s="3">
+        <v>60</v>
+      </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -2314,7 +2348,9 @@
       <c r="J19" s="2">
         <v>94</v>
       </c>
-      <c r="K19" s="3"/>
+      <c r="K19" s="3">
+        <v>70</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
@@ -2390,7 +2426,9 @@
       <c r="J20" s="2">
         <v>71</v>
       </c>
-      <c r="K20" s="3"/>
+      <c r="K20" s="3">
+        <v>80</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -2466,7 +2504,9 @@
       <c r="J21" s="2">
         <v>83</v>
       </c>
-      <c r="K21" s="3"/>
+      <c r="K21" s="3">
+        <v>77</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
@@ -2542,7 +2582,9 @@
       <c r="J22" s="2">
         <v>74</v>
       </c>
-      <c r="K22" s="3"/>
+      <c r="K22" s="3">
+        <v>67</v>
+      </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
@@ -2618,7 +2660,9 @@
       <c r="J23" s="3">
         <v>0</v>
       </c>
-      <c r="K23" s="3"/>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
@@ -2694,7 +2738,9 @@
       <c r="J24" s="2">
         <v>0</v>
       </c>
-      <c r="K24" s="3"/>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>

--- a/static/data/quizz.xlsx
+++ b/static/data/quizz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DERS\Archive\web\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D411F85-CC75-402A-8526-066AFFD16E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0FAA20-15C0-49A7-A845-CA3CEE8E212A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>İnformasiyanın kodlaşdırılması və əlifba anlayışı</t>
   </si>
   <si>
-    <t>İnformasiya ölçü vahidləri</t>
-  </si>
-  <si>
     <t>Mövqeli və mövqesiz say sistemləri</t>
   </si>
   <si>
@@ -267,6 +264,9 @@
   </si>
   <si>
     <t>Leyla Fərzəliyeva</t>
+  </si>
+  <si>
+    <t>Say sitamləri ümumi</t>
   </si>
 </sst>
 </file>
@@ -820,7 +820,7 @@
   <dimension ref="A1:BE24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,7 +831,7 @@
   <sheetData>
     <row r="1" spans="1:57" ht="378" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -840,160 +840,160 @@
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="U1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AR1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P1" s="6" t="s">
+      <c r="AU1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="AG1" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AI1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ1" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK1" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="AP1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="AQ1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="AR1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AY1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="BA1" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="BE1" s="8"/>
     </row>
     <row r="2" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3">
         <v>95</v>
@@ -1025,7 +1025,9 @@
       <c r="K2" s="3">
         <v>93</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
@@ -1071,7 +1073,7 @@
     </row>
     <row r="3" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="3">
         <v>100</v>
@@ -1103,7 +1105,9 @@
       <c r="K3" s="3">
         <v>93</v>
       </c>
-      <c r="L3" s="3"/>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -1149,7 +1153,7 @@
     </row>
     <row r="4" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="3">
         <v>95</v>
@@ -1181,7 +1185,9 @@
       <c r="K4" s="3">
         <v>97</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3">
+        <v>94</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1227,7 +1233,7 @@
     </row>
     <row r="5" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="3">
         <v>85</v>
@@ -1259,7 +1265,9 @@
       <c r="K5" s="3">
         <v>87</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3">
+        <v>100</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
@@ -1305,7 +1313,7 @@
     </row>
     <row r="6" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="3">
         <v>90</v>
@@ -1337,7 +1345,9 @@
       <c r="K6" s="3">
         <v>90</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3">
+        <v>97</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -1383,7 +1393,7 @@
     </row>
     <row r="7" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="3">
         <v>90</v>
@@ -1415,7 +1425,9 @@
       <c r="K7" s="3">
         <v>97</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3">
+        <v>97</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1461,7 +1473,7 @@
     </row>
     <row r="8" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3">
         <v>100</v>
@@ -1493,7 +1505,9 @@
       <c r="K8" s="3">
         <v>90</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3">
+        <v>97</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
@@ -1539,7 +1553,7 @@
     </row>
     <row r="9" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="3">
         <v>80</v>
@@ -1571,7 +1585,9 @@
       <c r="K9" s="3">
         <v>90</v>
       </c>
-      <c r="L9" s="3"/>
+      <c r="L9" s="3">
+        <v>100</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -1617,7 +1633,7 @@
     </row>
     <row r="10" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="3">
         <v>90</v>
@@ -1649,7 +1665,9 @@
       <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3"/>
+      <c r="L10" s="3">
+        <v>89</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -1695,7 +1713,7 @@
     </row>
     <row r="11" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="3">
         <v>100</v>
@@ -1727,7 +1745,9 @@
       <c r="K11" s="3">
         <v>97</v>
       </c>
-      <c r="L11" s="3"/>
+      <c r="L11" s="3">
+        <v>97</v>
+      </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -1773,7 +1793,7 @@
     </row>
     <row r="12" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="3">
         <v>90</v>
@@ -1805,7 +1825,9 @@
       <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3"/>
+      <c r="L12" s="3">
+        <v>100</v>
+      </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -1851,7 +1873,7 @@
     </row>
     <row r="13" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="3">
         <v>95</v>
@@ -1883,7 +1905,9 @@
       <c r="K13" s="3">
         <v>70</v>
       </c>
-      <c r="L13" s="3"/>
+      <c r="L13" s="3">
+        <v>94</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -1929,7 +1953,7 @@
     </row>
     <row r="14" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="3">
         <v>95</v>
@@ -1961,7 +1985,9 @@
       <c r="K14" s="3">
         <v>80</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3">
+        <v>89</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -2007,7 +2033,7 @@
     </row>
     <row r="15" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="3">
         <v>85</v>
@@ -2039,7 +2065,9 @@
       <c r="K15" s="3">
         <v>87</v>
       </c>
-      <c r="L15" s="3"/>
+      <c r="L15" s="3">
+        <v>100</v>
+      </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -2085,7 +2113,7 @@
     </row>
     <row r="16" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="3">
         <v>95</v>
@@ -2117,7 +2145,9 @@
       <c r="K16" s="3">
         <v>93</v>
       </c>
-      <c r="L16" s="3"/>
+      <c r="L16" s="3">
+        <v>100</v>
+      </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
@@ -2163,7 +2193,7 @@
     </row>
     <row r="17" spans="1:54" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="3">
         <v>90</v>
@@ -2195,7 +2225,9 @@
       <c r="K17" s="3">
         <v>83</v>
       </c>
-      <c r="L17" s="3"/>
+      <c r="L17" s="3">
+        <v>94</v>
+      </c>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
@@ -2241,7 +2273,7 @@
     </row>
     <row r="18" spans="1:54" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="3">
         <v>75</v>
@@ -2273,7 +2305,9 @@
       <c r="K18" s="3">
         <v>60</v>
       </c>
-      <c r="L18" s="3"/>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
@@ -2319,7 +2353,7 @@
     </row>
     <row r="19" spans="1:54" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B19" s="3">
         <v>85</v>
@@ -2351,7 +2385,9 @@
       <c r="K19" s="3">
         <v>70</v>
       </c>
-      <c r="L19" s="3"/>
+      <c r="L19" s="3">
+        <v>94</v>
+      </c>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
@@ -2397,7 +2433,7 @@
     </row>
     <row r="20" spans="1:54" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B20" s="3">
         <v>80</v>
@@ -2429,7 +2465,9 @@
       <c r="K20" s="3">
         <v>80</v>
       </c>
-      <c r="L20" s="3"/>
+      <c r="L20" s="3">
+        <v>74</v>
+      </c>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
@@ -2475,7 +2513,7 @@
     </row>
     <row r="21" spans="1:54" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="3">
         <v>75</v>
@@ -2507,7 +2545,9 @@
       <c r="K21" s="3">
         <v>77</v>
       </c>
-      <c r="L21" s="3"/>
+      <c r="L21" s="3">
+        <v>80</v>
+      </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
@@ -2553,7 +2593,7 @@
     </row>
     <row r="22" spans="1:54" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" s="3">
         <v>75</v>
@@ -2585,7 +2625,9 @@
       <c r="K22" s="3">
         <v>67</v>
       </c>
-      <c r="L22" s="3"/>
+      <c r="L22" s="3">
+        <v>66</v>
+      </c>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
@@ -2631,7 +2673,7 @@
     </row>
     <row r="23" spans="1:54" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="3">
         <v>85</v>
@@ -2663,7 +2705,9 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-      <c r="L23" s="3"/>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
@@ -2709,7 +2753,7 @@
     </row>
     <row r="24" spans="1:54" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="3">
         <v>85</v>
@@ -2741,7 +2785,9 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3"/>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>

--- a/static/data/quizz.xlsx
+++ b/static/data/quizz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DERS\Archive\web\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0FAA20-15C0-49A7-A845-CA3CEE8E212A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08ACCCFC-63D1-44CA-AF83-783CFC1C87C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,7 +820,7 @@
   <dimension ref="A1:BE24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+      <selection activeCell="AG4" sqref="AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,7 +1106,7 @@
         <v>93</v>
       </c>
       <c r="L3" s="3">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>

--- a/static/data/quizz.xlsx
+++ b/static/data/quizz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DERS\Archive\web\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08ACCCFC-63D1-44CA-AF83-783CFC1C87C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E432460-26BA-4D8B-8802-94B2B6DB7BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29130" yWindow="135" windowWidth="8460" windowHeight="17055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023-2024" sheetId="2" r:id="rId1"/>
@@ -820,7 +820,7 @@
   <dimension ref="A1:BE24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AG4" sqref="AG4"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,7 +1026,7 @@
         <v>93</v>
       </c>
       <c r="L2" s="3">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -2306,7 +2306,7 @@
         <v>60</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>

--- a/static/data/quizz.xlsx
+++ b/static/data/quizz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DERS\Archive\web\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E432460-26BA-4D8B-8802-94B2B6DB7BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D4CE27-B4B9-4DF0-B575-F07A559556CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29130" yWindow="135" windowWidth="8460" windowHeight="17055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023-2024" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>İnformasiaya və informasiya prosesləri 1</t>
   </si>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>Say sitamləri ümumi</t>
+  </si>
+  <si>
+    <t>Məcid Nəbizadə</t>
   </si>
 </sst>
 </file>
@@ -817,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BE24"/>
+  <dimension ref="A1:BE25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1031,9 @@
       <c r="L2" s="3">
         <v>97</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="3">
+        <v>94</v>
+      </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -1108,7 +1113,9 @@
       <c r="L3" s="3">
         <v>94</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="3">
+        <v>100</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
@@ -1188,7 +1195,9 @@
       <c r="L4" s="3">
         <v>94</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
@@ -1268,7 +1277,9 @@
       <c r="L5" s="3">
         <v>100</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3">
+        <v>100</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
@@ -1348,7 +1359,9 @@
       <c r="L6" s="3">
         <v>97</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="3">
+        <v>88</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
@@ -1428,7 +1441,9 @@
       <c r="L7" s="3">
         <v>97</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3">
+        <v>100</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
@@ -1508,7 +1523,9 @@
       <c r="L8" s="3">
         <v>97</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="3">
+        <v>84</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
@@ -1588,7 +1605,9 @@
       <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="3">
+        <v>84</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -1668,7 +1687,9 @@
       <c r="L10" s="3">
         <v>89</v>
       </c>
-      <c r="M10" s="3"/>
+      <c r="M10" s="3">
+        <v>94</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -1748,7 +1769,9 @@
       <c r="L11" s="3">
         <v>97</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="3">
+        <v>88</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -1828,7 +1851,9 @@
       <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3"/>
+      <c r="M12" s="3">
+        <v>100</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1908,7 +1933,9 @@
       <c r="L13" s="3">
         <v>94</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="3">
+        <v>84</v>
+      </c>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
@@ -1988,7 +2015,9 @@
       <c r="L14" s="3">
         <v>89</v>
       </c>
-      <c r="M14" s="3"/>
+      <c r="M14" s="3">
+        <v>88</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3"/>
@@ -2068,7 +2097,9 @@
       <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3"/>
+      <c r="M15" s="3">
+        <v>88</v>
+      </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3"/>
@@ -2148,7 +2179,9 @@
       <c r="L16" s="3">
         <v>100</v>
       </c>
-      <c r="M16" s="3"/>
+      <c r="M16" s="3">
+        <v>91</v>
+      </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -2228,7 +2261,9 @@
       <c r="L17" s="3">
         <v>94</v>
       </c>
-      <c r="M17" s="3"/>
+      <c r="M17" s="3">
+        <v>91</v>
+      </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -2308,7 +2343,9 @@
       <c r="L18" s="3">
         <v>83</v>
       </c>
-      <c r="M18" s="3"/>
+      <c r="M18" s="3">
+        <v>81</v>
+      </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -2388,7 +2425,9 @@
       <c r="L19" s="3">
         <v>94</v>
       </c>
-      <c r="M19" s="3"/>
+      <c r="M19" s="3">
+        <v>78</v>
+      </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -2468,7 +2507,9 @@
       <c r="L20" s="3">
         <v>74</v>
       </c>
-      <c r="M20" s="3"/>
+      <c r="M20" s="3">
+        <v>78</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -2548,7 +2589,9 @@
       <c r="L21" s="3">
         <v>80</v>
       </c>
-      <c r="M21" s="3"/>
+      <c r="M21" s="3">
+        <v>78</v>
+      </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3"/>
@@ -2628,7 +2671,9 @@
       <c r="L22" s="3">
         <v>66</v>
       </c>
-      <c r="M22" s="3"/>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -2708,7 +2753,9 @@
       <c r="L23" s="3">
         <v>0</v>
       </c>
-      <c r="M23" s="3"/>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -2788,7 +2835,9 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3"/>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -2831,6 +2880,88 @@
       <c r="BA24" s="2"/>
       <c r="BB24" s="1"/>
     </row>
+    <row r="25" spans="1:54" ht="24.75" x14ac:dyDescent="0.4">
+      <c r="A25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="3">
+        <v>60</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="11"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="1"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:BA1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2848,7 +2979,7 @@
       <formula>AVERAGE(B2:B22) &lt; 90</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:BA24">
+  <conditionalFormatting sqref="B2:BA25">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/static/data/quizz.xlsx
+++ b/static/data/quizz.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DERS\Archive\web\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D4CE27-B4B9-4DF0-B575-F07A559556CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96C86B5-513C-43FC-BF75-722B6015B588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29130" yWindow="135" windowWidth="10590" windowHeight="17055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023-2024" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2023-2024'!$A$1:$BA$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2023-2024'!$A$1:$BB$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -263,13 +263,13 @@
     <t>Rianna Osadçaya</t>
   </si>
   <si>
-    <t>Leyla Fərzəliyeva</t>
-  </si>
-  <si>
     <t>Say sitamləri ümumi</t>
   </si>
   <si>
     <t>Məcid Nəbizadə</t>
+  </si>
+  <si>
+    <t>Informasiya ölçü vahidləri</t>
   </si>
 </sst>
 </file>
@@ -820,19 +820,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BE25"/>
+  <dimension ref="A1:BF24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="53" width="6.7109375" customWidth="1"/>
+    <col min="2" max="54" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" ht="378" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" ht="378" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
@@ -867,134 +867,137 @@
         <v>9</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="N1" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="U1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AR1" s="7" t="s">
+      <c r="AS1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AT1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="AU1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="6" t="s">
+      <c r="AV1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AW1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AY1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
     </row>
-    <row r="2" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>58</v>
       </c>
@@ -1032,10 +1035,14 @@
         <v>97</v>
       </c>
       <c r="M2" s="3">
+        <v>100</v>
+      </c>
+      <c r="N2" s="3">
         <v>94</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
@@ -1055,7 +1062,7 @@
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
-      <c r="AI2" s="2"/>
+      <c r="AI2" s="3"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
@@ -1074,9 +1081,10 @@
       <c r="AY2" s="2"/>
       <c r="AZ2" s="2"/>
       <c r="BA2" s="2"/>
-      <c r="BB2" s="1"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="1"/>
     </row>
-    <row r="3" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
@@ -1114,10 +1122,14 @@
         <v>94</v>
       </c>
       <c r="M3" s="3">
-        <v>100</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+        <v>90</v>
+      </c>
+      <c r="N3" s="3">
+        <v>100</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
@@ -1137,7 +1149,7 @@
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
-      <c r="AI3" s="2"/>
+      <c r="AI3" s="3"/>
       <c r="AJ3" s="2"/>
       <c r="AK3" s="2"/>
       <c r="AL3" s="2"/>
@@ -1156,9 +1168,10 @@
       <c r="AY3" s="2"/>
       <c r="AZ3" s="2"/>
       <c r="BA3" s="2"/>
-      <c r="BB3" s="1"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="1"/>
     </row>
-    <row r="4" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -1196,10 +1209,14 @@
         <v>94</v>
       </c>
       <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+        <v>97</v>
+      </c>
+      <c r="N4" s="3">
+        <v>91</v>
+      </c>
+      <c r="O4" s="3">
+        <v>88</v>
+      </c>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
@@ -1219,7 +1236,7 @@
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
-      <c r="AI4" s="2"/>
+      <c r="AI4" s="3"/>
       <c r="AJ4" s="2"/>
       <c r="AK4" s="2"/>
       <c r="AL4" s="2"/>
@@ -1238,9 +1255,10 @@
       <c r="AY4" s="2"/>
       <c r="AZ4" s="2"/>
       <c r="BA4" s="2"/>
-      <c r="BB4" s="1"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="1"/>
     </row>
-    <row r="5" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>66</v>
       </c>
@@ -1278,10 +1296,14 @@
         <v>100</v>
       </c>
       <c r="M5" s="3">
-        <v>100</v>
-      </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="N5" s="3">
+        <v>100</v>
+      </c>
+      <c r="O5" s="3">
+        <v>84</v>
+      </c>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -1301,7 +1323,7 @@
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
-      <c r="AI5" s="2"/>
+      <c r="AI5" s="3"/>
       <c r="AJ5" s="2"/>
       <c r="AK5" s="2"/>
       <c r="AL5" s="2"/>
@@ -1320,9 +1342,10 @@
       <c r="AY5" s="2"/>
       <c r="AZ5" s="2"/>
       <c r="BA5" s="2"/>
-      <c r="BB5" s="1"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="1"/>
     </row>
-    <row r="6" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>63</v>
       </c>
@@ -1360,10 +1383,14 @@
         <v>97</v>
       </c>
       <c r="M6" s="3">
+        <v>90</v>
+      </c>
+      <c r="N6" s="3">
         <v>88</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="O6" s="3">
+        <v>92</v>
+      </c>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -1383,7 +1410,7 @@
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
-      <c r="AI6" s="2"/>
+      <c r="AI6" s="3"/>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
       <c r="AL6" s="2"/>
@@ -1402,9 +1429,10 @@
       <c r="AY6" s="2"/>
       <c r="AZ6" s="2"/>
       <c r="BA6" s="2"/>
-      <c r="BB6" s="1"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="1"/>
     </row>
-    <row r="7" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>61</v>
       </c>
@@ -1442,10 +1470,14 @@
         <v>97</v>
       </c>
       <c r="M7" s="3">
-        <v>100</v>
-      </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="N7" s="3">
+        <v>100</v>
+      </c>
+      <c r="O7" s="3">
+        <v>88</v>
+      </c>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -1465,7 +1497,7 @@
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
-      <c r="AI7" s="2"/>
+      <c r="AI7" s="3"/>
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
       <c r="AL7" s="2"/>
@@ -1484,9 +1516,10 @@
       <c r="AY7" s="2"/>
       <c r="AZ7" s="2"/>
       <c r="BA7" s="2"/>
-      <c r="BB7" s="1"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="1"/>
     </row>
-    <row r="8" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
@@ -1524,10 +1557,14 @@
         <v>97</v>
       </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
         <v>84</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="O8" s="3">
+        <v>84</v>
+      </c>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -1547,7 +1584,7 @@
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
-      <c r="AI8" s="2"/>
+      <c r="AI8" s="3"/>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="2"/>
@@ -1566,9 +1603,10 @@
       <c r="AY8" s="2"/>
       <c r="AZ8" s="2"/>
       <c r="BA8" s="2"/>
-      <c r="BB8" s="1"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="1"/>
     </row>
-    <row r="9" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>69</v>
       </c>
@@ -1606,10 +1644,14 @@
         <v>100</v>
       </c>
       <c r="M9" s="3">
+        <v>80</v>
+      </c>
+      <c r="N9" s="3">
         <v>84</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="O9" s="3">
+        <v>84</v>
+      </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -1629,7 +1671,7 @@
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
-      <c r="AI9" s="2"/>
+      <c r="AI9" s="3"/>
       <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
       <c r="AL9" s="2"/>
@@ -1648,9 +1690,10 @@
       <c r="AY9" s="2"/>
       <c r="AZ9" s="2"/>
       <c r="BA9" s="2"/>
-      <c r="BB9" s="1"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="1"/>
     </row>
-    <row r="10" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>64</v>
       </c>
@@ -1688,10 +1731,14 @@
         <v>89</v>
       </c>
       <c r="M10" s="3">
+        <v>87</v>
+      </c>
+      <c r="N10" s="3">
         <v>94</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="O10" s="3">
+        <v>92</v>
+      </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -1711,7 +1758,7 @@
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
-      <c r="AI10" s="2"/>
+      <c r="AI10" s="3"/>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
       <c r="AL10" s="2"/>
@@ -1730,9 +1777,10 @@
       <c r="AY10" s="2"/>
       <c r="AZ10" s="2"/>
       <c r="BA10" s="2"/>
-      <c r="BB10" s="1"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="1"/>
     </row>
-    <row r="11" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>54</v>
       </c>
@@ -1770,10 +1818,14 @@
         <v>97</v>
       </c>
       <c r="M11" s="3">
+        <v>93</v>
+      </c>
+      <c r="N11" s="3">
         <v>88</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="O11" s="3">
+        <v>76</v>
+      </c>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -1793,7 +1845,7 @@
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
-      <c r="AI11" s="2"/>
+      <c r="AI11" s="3"/>
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
       <c r="AL11" s="2"/>
@@ -1812,9 +1864,10 @@
       <c r="AY11" s="2"/>
       <c r="AZ11" s="2"/>
       <c r="BA11" s="2"/>
-      <c r="BB11" s="1"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="1"/>
     </row>
-    <row r="12" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>60</v>
       </c>
@@ -1854,8 +1907,12 @@
       <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3">
+        <v>92</v>
+      </c>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -1875,7 +1932,7 @@
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
-      <c r="AI12" s="2"/>
+      <c r="AI12" s="3"/>
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
       <c r="AL12" s="2"/>
@@ -1894,9 +1951,10 @@
       <c r="AY12" s="2"/>
       <c r="AZ12" s="2"/>
       <c r="BA12" s="2"/>
-      <c r="BB12" s="1"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="1"/>
     </row>
-    <row r="13" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>55</v>
       </c>
@@ -1934,10 +1992,14 @@
         <v>94</v>
       </c>
       <c r="M13" s="3">
+        <v>93</v>
+      </c>
+      <c r="N13" s="3">
         <v>84</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="O13" s="3">
+        <v>68</v>
+      </c>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -1957,7 +2019,7 @@
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
-      <c r="AI13" s="2"/>
+      <c r="AI13" s="3"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
       <c r="AL13" s="2"/>
@@ -1976,9 +2038,10 @@
       <c r="AY13" s="2"/>
       <c r="AZ13" s="2"/>
       <c r="BA13" s="2"/>
-      <c r="BB13" s="1"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="1"/>
     </row>
-    <row r="14" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>56</v>
       </c>
@@ -2016,10 +2079,14 @@
         <v>89</v>
       </c>
       <c r="M14" s="3">
+        <v>83</v>
+      </c>
+      <c r="N14" s="3">
         <v>88</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="O14" s="3">
+        <v>88</v>
+      </c>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
@@ -2039,7 +2106,7 @@
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
-      <c r="AI14" s="2"/>
+      <c r="AI14" s="3"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
@@ -2058,9 +2125,10 @@
       <c r="AY14" s="2"/>
       <c r="AZ14" s="2"/>
       <c r="BA14" s="2"/>
-      <c r="BB14" s="1"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="1"/>
     </row>
-    <row r="15" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>65</v>
       </c>
@@ -2098,10 +2166,14 @@
         <v>100</v>
       </c>
       <c r="M15" s="3">
+        <v>97</v>
+      </c>
+      <c r="N15" s="3">
         <v>88</v>
       </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="O15" s="3">
+        <v>92</v>
+      </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
@@ -2121,14 +2193,14 @@
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
-      <c r="AI15" s="2"/>
+      <c r="AI15" s="3"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
-      <c r="AO15" s="10"/>
-      <c r="AP15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="10"/>
       <c r="AQ15" s="2"/>
       <c r="AR15" s="2"/>
       <c r="AS15" s="2"/>
@@ -2140,9 +2212,10 @@
       <c r="AY15" s="2"/>
       <c r="AZ15" s="2"/>
       <c r="BA15" s="2"/>
-      <c r="BB15" s="1"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="1"/>
     </row>
-    <row r="16" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>57</v>
       </c>
@@ -2180,10 +2253,14 @@
         <v>100</v>
       </c>
       <c r="M16" s="3">
+        <v>97</v>
+      </c>
+      <c r="N16" s="3">
         <v>91</v>
       </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="O16" s="3">
+        <v>96</v>
+      </c>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
@@ -2203,7 +2280,7 @@
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
-      <c r="AI16" s="2"/>
+      <c r="AI16" s="3"/>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
@@ -2222,9 +2299,10 @@
       <c r="AY16" s="2"/>
       <c r="AZ16" s="2"/>
       <c r="BA16" s="2"/>
-      <c r="BB16" s="1"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="1"/>
     </row>
-    <row r="17" spans="1:54" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:55" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>62</v>
       </c>
@@ -2262,10 +2340,14 @@
         <v>94</v>
       </c>
       <c r="M17" s="3">
+        <v>83</v>
+      </c>
+      <c r="N17" s="3">
         <v>91</v>
       </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="O17" s="3">
+        <v>88</v>
+      </c>
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -2285,7 +2367,7 @@
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
-      <c r="AI17" s="2"/>
+      <c r="AI17" s="3"/>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
@@ -2304,9 +2386,10 @@
       <c r="AY17" s="2"/>
       <c r="AZ17" s="2"/>
       <c r="BA17" s="2"/>
-      <c r="BB17" s="1"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="1"/>
     </row>
-    <row r="18" spans="1:54" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:55" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>70</v>
       </c>
@@ -2344,10 +2427,14 @@
         <v>83</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>81</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
@@ -2367,7 +2454,7 @@
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
-      <c r="AI18" s="2"/>
+      <c r="AI18" s="3"/>
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
@@ -2386,9 +2473,10 @@
       <c r="AY18" s="2"/>
       <c r="AZ18" s="2"/>
       <c r="BA18" s="2"/>
-      <c r="BB18" s="1"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="1"/>
     </row>
-    <row r="19" spans="1:54" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:55" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>67</v>
       </c>
@@ -2426,10 +2514,14 @@
         <v>94</v>
       </c>
       <c r="M19" s="3">
+        <v>83</v>
+      </c>
+      <c r="N19" s="3">
         <v>78</v>
       </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="O19" s="3">
+        <v>80</v>
+      </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
@@ -2449,7 +2541,7 @@
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
-      <c r="AI19" s="2"/>
+      <c r="AI19" s="3"/>
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
@@ -2468,9 +2560,10 @@
       <c r="AY19" s="2"/>
       <c r="AZ19" s="2"/>
       <c r="BA19" s="2"/>
-      <c r="BB19" s="1"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="1"/>
     </row>
-    <row r="20" spans="1:54" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:55" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>68</v>
       </c>
@@ -2508,10 +2601,14 @@
         <v>74</v>
       </c>
       <c r="M20" s="3">
+        <v>87</v>
+      </c>
+      <c r="N20" s="3">
         <v>78</v>
       </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
@@ -2531,7 +2628,7 @@
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
-      <c r="AI20" s="2"/>
+      <c r="AI20" s="3"/>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
@@ -2550,9 +2647,10 @@
       <c r="AY20" s="2"/>
       <c r="AZ20" s="2"/>
       <c r="BA20" s="2"/>
-      <c r="BB20" s="1"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="1"/>
     </row>
-    <row r="21" spans="1:54" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:55" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>71</v>
       </c>
@@ -2590,10 +2688,14 @@
         <v>80</v>
       </c>
       <c r="M21" s="3">
+        <v>87</v>
+      </c>
+      <c r="N21" s="3">
         <v>78</v>
       </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="O21" s="3">
+        <v>88</v>
+      </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
@@ -2613,7 +2715,7 @@
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
-      <c r="AI21" s="2"/>
+      <c r="AI21" s="3"/>
       <c r="AJ21" s="2"/>
       <c r="AK21" s="2"/>
       <c r="AL21" s="2"/>
@@ -2632,9 +2734,10 @@
       <c r="AY21" s="2"/>
       <c r="AZ21" s="2"/>
       <c r="BA21" s="2"/>
-      <c r="BB21" s="1"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="1"/>
     </row>
-    <row r="22" spans="1:54" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:55" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>72</v>
       </c>
@@ -2672,10 +2775,14 @@
         <v>66</v>
       </c>
       <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="N22" s="3">
+        <v>63</v>
+      </c>
+      <c r="O22" s="3">
+        <v>48</v>
+      </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
@@ -2695,7 +2802,7 @@
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
-      <c r="AI22" s="2"/>
+      <c r="AI22" s="3"/>
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
       <c r="AL22" s="2"/>
@@ -2714,23 +2821,24 @@
       <c r="AY22" s="2"/>
       <c r="AZ22" s="2"/>
       <c r="BA22" s="2"/>
-      <c r="BB22" s="1"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="1"/>
     </row>
-    <row r="23" spans="1:54" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:55" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" s="3">
         <v>85</v>
       </c>
       <c r="C23" s="3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D23" s="3">
-        <v>93</v>
-      </c>
-      <c r="E23" s="3">
-        <v>93</v>
+        <v>73</v>
+      </c>
+      <c r="E23" s="2">
+        <v>67</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -2744,7 +2852,7 @@
       <c r="I23" s="3">
         <v>0</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <v>0</v>
       </c>
       <c r="K23" s="3">
@@ -2756,8 +2864,12 @@
       <c r="M23" s="3">
         <v>0</v>
       </c>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
@@ -2777,7 +2889,7 @@
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
-      <c r="AI23" s="2"/>
+      <c r="AI23" s="3"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="2"/>
@@ -2791,28 +2903,29 @@
       <c r="AT23" s="2"/>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
-      <c r="AW23" s="2"/>
+      <c r="AW23" s="11"/>
       <c r="AX23" s="2"/>
       <c r="AY23" s="2"/>
       <c r="AZ23" s="2"/>
       <c r="BA23" s="2"/>
-      <c r="BB23" s="1"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="1"/>
     </row>
-    <row r="24" spans="1:54" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:55" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B24" s="3">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C24" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="D24" s="3">
-        <v>73</v>
-      </c>
-      <c r="E24" s="2">
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -2838,8 +2951,12 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
@@ -2859,7 +2976,7 @@
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
-      <c r="AI24" s="2"/>
+      <c r="AI24" s="3"/>
       <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
       <c r="AL24" s="2"/>
@@ -2872,100 +2989,19 @@
       <c r="AS24" s="2"/>
       <c r="AT24" s="2"/>
       <c r="AU24" s="2"/>
-      <c r="AV24" s="11"/>
-      <c r="AW24" s="2"/>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="11"/>
       <c r="AX24" s="2"/>
       <c r="AY24" s="2"/>
       <c r="AZ24" s="2"/>
       <c r="BA24" s="2"/>
-      <c r="BB24" s="1"/>
-    </row>
-    <row r="25" spans="1:54" ht="24.75" x14ac:dyDescent="0.4">
-      <c r="A25" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="3">
-        <v>60</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25" s="2">
-        <v>0</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3">
-        <v>0</v>
-      </c>
-      <c r="M25" s="3">
-        <v>0</v>
-      </c>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
-      <c r="AI25" s="2"/>
-      <c r="AJ25" s="2"/>
-      <c r="AK25" s="2"/>
-      <c r="AL25" s="2"/>
-      <c r="AM25" s="2"/>
-      <c r="AN25" s="2"/>
-      <c r="AO25" s="2"/>
-      <c r="AP25" s="2"/>
-      <c r="AQ25" s="2"/>
-      <c r="AR25" s="2"/>
-      <c r="AS25" s="2"/>
-      <c r="AT25" s="2"/>
-      <c r="AU25" s="2"/>
-      <c r="AV25" s="11"/>
-      <c r="AW25" s="2"/>
-      <c r="AX25" s="2"/>
-      <c r="AY25" s="2"/>
-      <c r="AZ25" s="2"/>
-      <c r="BA25" s="2"/>
-      <c r="BB25" s="1"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BA1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:BB1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="B1:BA1">
+  <conditionalFormatting sqref="B1:BB1">
     <cfRule type="expression" dxfId="9" priority="7">
       <formula>AVERAGE(B2:B22) &lt; 80</formula>
     </cfRule>
@@ -2979,7 +3015,7 @@
       <formula>AVERAGE(B2:B22) &lt; 90</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:BA25">
+  <conditionalFormatting sqref="B2:BB24">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/static/data/quizz.xlsx
+++ b/static/data/quizz.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DERS\Archive\web\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96C86B5-513C-43FC-BF75-722B6015B588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8C4298-AE1C-4E48-93F0-B35C42C8F1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29130" yWindow="135" windowWidth="10590" windowHeight="17055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023-2024" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2023-2024'!$A$1:$BB$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2023-2024'!$A$1:$BD$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>İnformasiaya və informasiya prosesləri 1</t>
   </si>
@@ -270,6 +270,12 @@
   </si>
   <si>
     <t>Informasiya ölçü vahidləri</t>
+  </si>
+  <si>
+    <t>*** Yazılı imtahan (asan) ***</t>
+  </si>
+  <si>
+    <t>*** Yazılı imtahan (çətin) ***</t>
   </si>
 </sst>
 </file>
@@ -820,19 +826,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BF24"/>
+  <dimension ref="A1:BH24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="54" width="6.7109375" customWidth="1"/>
+    <col min="2" max="56" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="378" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" ht="378" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
@@ -867,137 +873,143 @@
         <v>9</v>
       </c>
       <c r="L1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="7" t="s">
+      <c r="W1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="X1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="7" t="s">
+      <c r="Y1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="X1" s="7" t="s">
+      <c r="Z1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="7" t="s">
+      <c r="AA1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="AB1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AC1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AD1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="AC1" s="7" t="s">
+      <c r="AE1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AF1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="7" t="s">
+      <c r="AG1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AM1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AL1" s="7" t="s">
+      <c r="AN1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AM1" s="7" t="s">
+      <c r="AO1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AN1" s="7" t="s">
+      <c r="AP1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AR1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AS1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AT1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AS1" s="7" t="s">
+      <c r="AU1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" s="7" t="s">
+      <c r="AV1" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" s="7" t="s">
+      <c r="AW1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="6" t="s">
+      <c r="AX1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="6" t="s">
+      <c r="AY1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="6" t="s">
+      <c r="AZ1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AY1" s="6" t="s">
+      <c r="BA1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AZ1" s="6" t="s">
+      <c r="BB1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="BA1" s="6" t="s">
+      <c r="BC1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="BB1" s="6" t="s">
+      <c r="BD1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="BF1" s="8"/>
+      <c r="BH1" s="8"/>
     </row>
-    <row r="2" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:60" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>58</v>
       </c>
@@ -1032,19 +1044,23 @@
         <v>93</v>
       </c>
       <c r="L2" s="3">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="M2" s="3">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N2" s="3">
+        <v>100</v>
+      </c>
+      <c r="O2" s="3">
         <v>94</v>
       </c>
-      <c r="O2" s="3">
+      <c r="P2" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="3">
         <v>0</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -1063,8 +1079,8 @@
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
@@ -1082,9 +1098,11 @@
       <c r="AZ2" s="2"/>
       <c r="BA2" s="2"/>
       <c r="BB2" s="2"/>
-      <c r="BC2" s="1"/>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="1"/>
     </row>
-    <row r="3" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:60" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
@@ -1119,19 +1137,23 @@
         <v>93</v>
       </c>
       <c r="L3" s="3">
+        <v>89</v>
+      </c>
+      <c r="M3" s="3">
         <v>94</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>90</v>
       </c>
-      <c r="N3" s="3">
-        <v>100</v>
-      </c>
       <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+        <v>100</v>
+      </c>
+      <c r="P3" s="3">
+        <v>80</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>67</v>
+      </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
@@ -1150,8 +1172,8 @@
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
       <c r="AI3" s="3"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
@@ -1169,9 +1191,11 @@
       <c r="AZ3" s="2"/>
       <c r="BA3" s="2"/>
       <c r="BB3" s="2"/>
-      <c r="BC3" s="1"/>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BE3" s="1"/>
     </row>
-    <row r="4" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:60" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -1206,19 +1230,23 @@
         <v>97</v>
       </c>
       <c r="L4" s="3">
+        <v>88</v>
+      </c>
+      <c r="M4" s="3">
         <v>94</v>
       </c>
-      <c r="M4" s="3">
-        <v>97</v>
-      </c>
       <c r="N4" s="3">
+        <v>97</v>
+      </c>
+      <c r="O4" s="3">
         <v>91</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P4" s="3">
         <v>88</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+      <c r="Q4" s="3">
+        <v>55</v>
+      </c>
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
@@ -1237,8 +1265,8 @@
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
       <c r="AI4" s="3"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
       <c r="AN4" s="2"/>
@@ -1256,9 +1284,11 @@
       <c r="AZ4" s="2"/>
       <c r="BA4" s="2"/>
       <c r="BB4" s="2"/>
-      <c r="BC4" s="1"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="1"/>
     </row>
-    <row r="5" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:60" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>66</v>
       </c>
@@ -1293,19 +1323,23 @@
         <v>87</v>
       </c>
       <c r="L5" s="3">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="M5" s="3">
+        <v>100</v>
+      </c>
+      <c r="N5" s="3">
         <v>87</v>
       </c>
-      <c r="N5" s="3">
-        <v>100</v>
-      </c>
       <c r="O5" s="3">
+        <v>100</v>
+      </c>
+      <c r="P5" s="3">
         <v>84</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="3">
+        <v>54</v>
+      </c>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -1324,8 +1358,8 @@
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
       <c r="AI5" s="3"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
       <c r="AN5" s="2"/>
@@ -1343,9 +1377,11 @@
       <c r="AZ5" s="2"/>
       <c r="BA5" s="2"/>
       <c r="BB5" s="2"/>
-      <c r="BC5" s="1"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="1"/>
     </row>
-    <row r="6" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:60" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>63</v>
       </c>
@@ -1380,19 +1416,23 @@
         <v>90</v>
       </c>
       <c r="L6" s="3">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="M6" s="3">
+        <v>97</v>
+      </c>
+      <c r="N6" s="3">
         <v>90</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O6" s="3">
         <v>88</v>
       </c>
-      <c r="O6" s="3">
+      <c r="P6" s="3">
         <v>92</v>
       </c>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="3">
+        <v>53</v>
+      </c>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -1411,8 +1451,8 @@
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
       <c r="AI6" s="3"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
       <c r="AL6" s="2"/>
       <c r="AM6" s="2"/>
       <c r="AN6" s="2"/>
@@ -1430,9 +1470,11 @@
       <c r="AZ6" s="2"/>
       <c r="BA6" s="2"/>
       <c r="BB6" s="2"/>
-      <c r="BC6" s="1"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="1"/>
     </row>
-    <row r="7" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:60" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>61</v>
       </c>
@@ -1467,19 +1509,23 @@
         <v>97</v>
       </c>
       <c r="L7" s="3">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M7" s="3">
+        <v>97</v>
+      </c>
+      <c r="N7" s="3">
         <v>80</v>
       </c>
-      <c r="N7" s="3">
-        <v>100</v>
-      </c>
       <c r="O7" s="3">
+        <v>100</v>
+      </c>
+      <c r="P7" s="3">
         <v>88</v>
       </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="3">
+        <v>85</v>
+      </c>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
@@ -1498,8 +1544,8 @@
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
       <c r="AN7" s="2"/>
@@ -1517,9 +1563,11 @@
       <c r="AZ7" s="2"/>
       <c r="BA7" s="2"/>
       <c r="BB7" s="2"/>
-      <c r="BC7" s="1"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="1"/>
     </row>
-    <row r="8" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:60" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>52</v>
       </c>
@@ -1554,19 +1602,23 @@
         <v>90</v>
       </c>
       <c r="L8" s="3">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="M8" s="3">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N8" s="3">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>84</v>
       </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="P8" s="3">
+        <v>84</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>66</v>
+      </c>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
@@ -1585,8 +1637,8 @@
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
       <c r="AL8" s="2"/>
       <c r="AM8" s="2"/>
       <c r="AN8" s="2"/>
@@ -1604,9 +1656,11 @@
       <c r="AZ8" s="2"/>
       <c r="BA8" s="2"/>
       <c r="BB8" s="2"/>
-      <c r="BC8" s="1"/>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="1"/>
     </row>
-    <row r="9" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:60" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>69</v>
       </c>
@@ -1641,19 +1695,23 @@
         <v>90</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="M9" s="3">
+        <v>100</v>
+      </c>
+      <c r="N9" s="3">
         <v>80</v>
-      </c>
-      <c r="N9" s="3">
-        <v>84</v>
       </c>
       <c r="O9" s="3">
         <v>84</v>
       </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="P9" s="3">
+        <v>84</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>21</v>
+      </c>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
@@ -1672,8 +1730,8 @@
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
-      <c r="AJ9" s="2"/>
-      <c r="AK9" s="2"/>
+      <c r="AJ9" s="3"/>
+      <c r="AK9" s="3"/>
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
       <c r="AN9" s="2"/>
@@ -1691,9 +1749,11 @@
       <c r="AZ9" s="2"/>
       <c r="BA9" s="2"/>
       <c r="BB9" s="2"/>
-      <c r="BC9" s="1"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="1"/>
     </row>
-    <row r="10" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:60" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>64</v>
       </c>
@@ -1728,19 +1788,23 @@
         <v>100</v>
       </c>
       <c r="L10" s="3">
+        <v>91</v>
+      </c>
+      <c r="M10" s="3">
         <v>89</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>87</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>94</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>92</v>
       </c>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="Q10" s="3">
+        <v>47</v>
+      </c>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
@@ -1759,8 +1823,8 @@
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
-      <c r="AJ10" s="2"/>
-      <c r="AK10" s="2"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
       <c r="AN10" s="2"/>
@@ -1778,9 +1842,11 @@
       <c r="AZ10" s="2"/>
       <c r="BA10" s="2"/>
       <c r="BB10" s="2"/>
-      <c r="BC10" s="1"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="1"/>
     </row>
-    <row r="11" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:60" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>54</v>
       </c>
@@ -1815,19 +1881,23 @@
         <v>97</v>
       </c>
       <c r="L11" s="3">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="M11" s="3">
+        <v>97</v>
+      </c>
+      <c r="N11" s="3">
         <v>93</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O11" s="3">
         <v>88</v>
       </c>
-      <c r="O11" s="3">
+      <c r="P11" s="3">
         <v>76</v>
       </c>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="Q11" s="3">
+        <v>42</v>
+      </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -1846,8 +1916,8 @@
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
-      <c r="AJ11" s="2"/>
-      <c r="AK11" s="2"/>
+      <c r="AJ11" s="3"/>
+      <c r="AK11" s="3"/>
       <c r="AL11" s="2"/>
       <c r="AM11" s="2"/>
       <c r="AN11" s="2"/>
@@ -1865,9 +1935,11 @@
       <c r="AZ11" s="2"/>
       <c r="BA11" s="2"/>
       <c r="BB11" s="2"/>
-      <c r="BC11" s="1"/>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="2"/>
+      <c r="BE11" s="1"/>
     </row>
-    <row r="12" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:60" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
         <v>60</v>
       </c>
@@ -1902,7 +1974,7 @@
         <v>100</v>
       </c>
       <c r="L12" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
@@ -1911,10 +1983,14 @@
         <v>100</v>
       </c>
       <c r="O12" s="3">
+        <v>100</v>
+      </c>
+      <c r="P12" s="3">
         <v>92</v>
       </c>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="Q12" s="3">
+        <v>70</v>
+      </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
@@ -1933,8 +2009,8 @@
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
-      <c r="AJ12" s="2"/>
-      <c r="AK12" s="2"/>
+      <c r="AJ12" s="3"/>
+      <c r="AK12" s="3"/>
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
@@ -1952,9 +2028,11 @@
       <c r="AZ12" s="2"/>
       <c r="BA12" s="2"/>
       <c r="BB12" s="2"/>
-      <c r="BC12" s="1"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="1"/>
     </row>
-    <row r="13" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:60" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>55</v>
       </c>
@@ -1992,16 +2070,20 @@
         <v>94</v>
       </c>
       <c r="M13" s="3">
+        <v>94</v>
+      </c>
+      <c r="N13" s="3">
         <v>93</v>
       </c>
-      <c r="N13" s="3">
+      <c r="O13" s="3">
         <v>84</v>
       </c>
-      <c r="O13" s="3">
+      <c r="P13" s="3">
         <v>68</v>
       </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="Q13" s="3">
+        <v>66</v>
+      </c>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
@@ -2020,8 +2102,8 @@
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
-      <c r="AJ13" s="2"/>
-      <c r="AK13" s="2"/>
+      <c r="AJ13" s="3"/>
+      <c r="AK13" s="3"/>
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
       <c r="AN13" s="2"/>
@@ -2039,9 +2121,11 @@
       <c r="AZ13" s="2"/>
       <c r="BA13" s="2"/>
       <c r="BB13" s="2"/>
-      <c r="BC13" s="1"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="1"/>
     </row>
-    <row r="14" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:60" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A14" s="5" t="s">
         <v>56</v>
       </c>
@@ -2076,19 +2160,23 @@
         <v>80</v>
       </c>
       <c r="L14" s="3">
+        <v>76</v>
+      </c>
+      <c r="M14" s="3">
         <v>89</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>83</v>
-      </c>
-      <c r="N14" s="3">
-        <v>88</v>
       </c>
       <c r="O14" s="3">
         <v>88</v>
       </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="P14" s="3">
+        <v>88</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>29</v>
+      </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -2107,8 +2195,8 @@
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
       <c r="AI14" s="3"/>
-      <c r="AJ14" s="2"/>
-      <c r="AK14" s="2"/>
+      <c r="AJ14" s="3"/>
+      <c r="AK14" s="3"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
       <c r="AN14" s="2"/>
@@ -2126,9 +2214,11 @@
       <c r="AZ14" s="2"/>
       <c r="BA14" s="2"/>
       <c r="BB14" s="2"/>
-      <c r="BC14" s="1"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+      <c r="BE14" s="1"/>
     </row>
-    <row r="15" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:60" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>65</v>
       </c>
@@ -2163,19 +2253,23 @@
         <v>87</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="M15" s="3">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N15" s="3">
+        <v>97</v>
+      </c>
+      <c r="O15" s="3">
         <v>88</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>92</v>
       </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="Q15" s="3">
+        <v>59</v>
+      </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -2194,15 +2288,15 @@
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
       <c r="AI15" s="3"/>
-      <c r="AJ15" s="2"/>
-      <c r="AK15" s="2"/>
+      <c r="AJ15" s="3"/>
+      <c r="AK15" s="3"/>
       <c r="AL15" s="2"/>
       <c r="AM15" s="2"/>
       <c r="AN15" s="2"/>
       <c r="AO15" s="2"/>
-      <c r="AP15" s="10"/>
+      <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
-      <c r="AR15" s="2"/>
+      <c r="AR15" s="10"/>
       <c r="AS15" s="2"/>
       <c r="AT15" s="2"/>
       <c r="AU15" s="2"/>
@@ -2213,9 +2307,11 @@
       <c r="AZ15" s="2"/>
       <c r="BA15" s="2"/>
       <c r="BB15" s="2"/>
-      <c r="BC15" s="1"/>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2"/>
+      <c r="BE15" s="1"/>
     </row>
-    <row r="16" spans="1:58" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:60" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
         <v>57</v>
       </c>
@@ -2250,19 +2346,23 @@
         <v>93</v>
       </c>
       <c r="L16" s="3">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M16" s="3">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N16" s="3">
+        <v>97</v>
+      </c>
+      <c r="O16" s="3">
         <v>91</v>
       </c>
-      <c r="O16" s="3">
+      <c r="P16" s="3">
         <v>96</v>
       </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="Q16" s="3">
+        <v>59</v>
+      </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
@@ -2281,8 +2381,8 @@
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
-      <c r="AJ16" s="2"/>
-      <c r="AK16" s="2"/>
+      <c r="AJ16" s="3"/>
+      <c r="AK16" s="3"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
       <c r="AN16" s="2"/>
@@ -2300,9 +2400,11 @@
       <c r="AZ16" s="2"/>
       <c r="BA16" s="2"/>
       <c r="BB16" s="2"/>
-      <c r="BC16" s="1"/>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="2"/>
+      <c r="BE16" s="1"/>
     </row>
-    <row r="17" spans="1:55" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
         <v>62</v>
       </c>
@@ -2337,19 +2439,23 @@
         <v>83</v>
       </c>
       <c r="L17" s="3">
+        <v>84</v>
+      </c>
+      <c r="M17" s="3">
         <v>94</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>83</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>91</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>88</v>
       </c>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="Q17" s="3">
+        <v>72</v>
+      </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -2368,8 +2474,8 @@
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
       <c r="AI17" s="3"/>
-      <c r="AJ17" s="2"/>
-      <c r="AK17" s="2"/>
+      <c r="AJ17" s="3"/>
+      <c r="AK17" s="3"/>
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
       <c r="AN17" s="2"/>
@@ -2387,9 +2493,11 @@
       <c r="AZ17" s="2"/>
       <c r="BA17" s="2"/>
       <c r="BB17" s="2"/>
-      <c r="BC17" s="1"/>
+      <c r="BC17" s="2"/>
+      <c r="BD17" s="2"/>
+      <c r="BE17" s="1"/>
     </row>
-    <row r="18" spans="1:55" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A18" s="4" t="s">
         <v>70</v>
       </c>
@@ -2424,19 +2532,23 @@
         <v>60</v>
       </c>
       <c r="L18" s="3">
+        <v>47</v>
+      </c>
+      <c r="M18" s="3">
         <v>83</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>0</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>81</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>0</v>
       </c>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="Q18" s="3">
+        <v>21</v>
+      </c>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
@@ -2455,8 +2567,8 @@
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
-      <c r="AJ18" s="2"/>
-      <c r="AK18" s="2"/>
+      <c r="AJ18" s="3"/>
+      <c r="AK18" s="3"/>
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
       <c r="AN18" s="2"/>
@@ -2474,9 +2586,11 @@
       <c r="AZ18" s="2"/>
       <c r="BA18" s="2"/>
       <c r="BB18" s="2"/>
-      <c r="BC18" s="1"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+      <c r="BE18" s="1"/>
     </row>
-    <row r="19" spans="1:55" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>67</v>
       </c>
@@ -2511,19 +2625,23 @@
         <v>70</v>
       </c>
       <c r="L19" s="3">
+        <v>61</v>
+      </c>
+      <c r="M19" s="3">
         <v>94</v>
       </c>
-      <c r="M19" s="3">
+      <c r="N19" s="3">
         <v>83</v>
       </c>
-      <c r="N19" s="3">
+      <c r="O19" s="3">
         <v>78</v>
       </c>
-      <c r="O19" s="3">
+      <c r="P19" s="3">
         <v>80</v>
       </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+      <c r="Q19" s="3">
+        <v>41</v>
+      </c>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
@@ -2542,8 +2660,8 @@
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
-      <c r="AJ19" s="2"/>
-      <c r="AK19" s="2"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
       <c r="AN19" s="2"/>
@@ -2561,9 +2679,11 @@
       <c r="AZ19" s="2"/>
       <c r="BA19" s="2"/>
       <c r="BB19" s="2"/>
-      <c r="BC19" s="1"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+      <c r="BE19" s="1"/>
     </row>
-    <row r="20" spans="1:55" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
         <v>68</v>
       </c>
@@ -2598,19 +2718,23 @@
         <v>80</v>
       </c>
       <c r="L20" s="3">
+        <v>64</v>
+      </c>
+      <c r="M20" s="3">
         <v>74</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>87</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>78</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="P20" s="3">
+        <v>76</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>33</v>
+      </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
@@ -2629,8 +2753,8 @@
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
-      <c r="AJ20" s="2"/>
-      <c r="AK20" s="2"/>
+      <c r="AJ20" s="3"/>
+      <c r="AK20" s="3"/>
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
       <c r="AN20" s="2"/>
@@ -2648,9 +2772,11 @@
       <c r="AZ20" s="2"/>
       <c r="BA20" s="2"/>
       <c r="BB20" s="2"/>
-      <c r="BC20" s="1"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="2"/>
+      <c r="BE20" s="1"/>
     </row>
-    <row r="21" spans="1:55" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>71</v>
       </c>
@@ -2685,19 +2811,23 @@
         <v>77</v>
       </c>
       <c r="L21" s="3">
+        <v>77</v>
+      </c>
+      <c r="M21" s="3">
         <v>80</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>87</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>78</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>88</v>
       </c>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
+      <c r="Q21" s="3">
+        <v>44</v>
+      </c>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -2716,8 +2846,8 @@
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
-      <c r="AJ21" s="2"/>
-      <c r="AK21" s="2"/>
+      <c r="AJ21" s="3"/>
+      <c r="AK21" s="3"/>
       <c r="AL21" s="2"/>
       <c r="AM21" s="2"/>
       <c r="AN21" s="2"/>
@@ -2735,9 +2865,11 @@
       <c r="AZ21" s="2"/>
       <c r="BA21" s="2"/>
       <c r="BB21" s="2"/>
-      <c r="BC21" s="1"/>
+      <c r="BC21" s="2"/>
+      <c r="BD21" s="2"/>
+      <c r="BE21" s="1"/>
     </row>
-    <row r="22" spans="1:55" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>72</v>
       </c>
@@ -2772,19 +2904,23 @@
         <v>67</v>
       </c>
       <c r="L22" s="3">
+        <v>30</v>
+      </c>
+      <c r="M22" s="3">
         <v>66</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>73</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>63</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>48</v>
       </c>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
@@ -2803,8 +2939,8 @@
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
-      <c r="AJ22" s="2"/>
-      <c r="AK22" s="2"/>
+      <c r="AJ22" s="3"/>
+      <c r="AK22" s="3"/>
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" s="2"/>
@@ -2822,9 +2958,11 @@
       <c r="AZ22" s="2"/>
       <c r="BA22" s="2"/>
       <c r="BB22" s="2"/>
-      <c r="BC22" s="1"/>
+      <c r="BC22" s="2"/>
+      <c r="BD22" s="2"/>
+      <c r="BE22" s="1"/>
     </row>
-    <row r="23" spans="1:55" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>73</v>
       </c>
@@ -2859,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
@@ -2870,8 +3008,12 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>21</v>
+      </c>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -2890,8 +3032,8 @@
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
       <c r="AI23" s="3"/>
-      <c r="AJ23" s="2"/>
-      <c r="AK23" s="2"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
       <c r="AL23" s="2"/>
       <c r="AM23" s="2"/>
       <c r="AN23" s="2"/>
@@ -2903,15 +3045,17 @@
       <c r="AT23" s="2"/>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
-      <c r="AW23" s="11"/>
+      <c r="AW23" s="2"/>
       <c r="AX23" s="2"/>
-      <c r="AY23" s="2"/>
+      <c r="AY23" s="11"/>
       <c r="AZ23" s="2"/>
       <c r="BA23" s="2"/>
       <c r="BB23" s="2"/>
-      <c r="BC23" s="1"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="1"/>
     </row>
-    <row r="24" spans="1:55" ht="24.75" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>75</v>
       </c>
@@ -2919,13 +3063,13 @@
         <v>60</v>
       </c>
       <c r="C24" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -2957,8 +3101,12 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
@@ -2977,8 +3125,8 @@
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
       <c r="AI24" s="3"/>
-      <c r="AJ24" s="2"/>
-      <c r="AK24" s="2"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
       <c r="AL24" s="2"/>
       <c r="AM24" s="2"/>
       <c r="AN24" s="2"/>
@@ -2990,18 +3138,20 @@
       <c r="AT24" s="2"/>
       <c r="AU24" s="2"/>
       <c r="AV24" s="2"/>
-      <c r="AW24" s="11"/>
+      <c r="AW24" s="2"/>
       <c r="AX24" s="2"/>
-      <c r="AY24" s="2"/>
+      <c r="AY24" s="11"/>
       <c r="AZ24" s="2"/>
       <c r="BA24" s="2"/>
       <c r="BB24" s="2"/>
-      <c r="BC24" s="1"/>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="2"/>
+      <c r="BE24" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BB1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:BD1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="B1:BB1">
+  <conditionalFormatting sqref="B1:BD1">
     <cfRule type="expression" dxfId="9" priority="7">
       <formula>AVERAGE(B2:B22) &lt; 80</formula>
     </cfRule>
@@ -3015,7 +3165,7 @@
       <formula>AVERAGE(B2:B22) &lt; 90</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:BB24">
+  <conditionalFormatting sqref="B2:BD24">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/static/data/quizz.xlsx
+++ b/static/data/quizz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DERS\Archive\web\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8C4298-AE1C-4E48-93F0-B35C42C8F1A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A9DA84-DCA6-46FA-9BE0-0DD931B9E1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023-2024" sheetId="2" r:id="rId1"/>
@@ -829,7 +829,7 @@
   <dimension ref="A1:BH24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,7 +1061,9 @@
       <c r="Q2" s="3">
         <v>0</v>
       </c>
-      <c r="R2" s="3"/>
+      <c r="R2" s="3">
+        <v>0</v>
+      </c>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
@@ -1154,7 +1156,9 @@
       <c r="Q3" s="3">
         <v>67</v>
       </c>
-      <c r="R3" s="3"/>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
       <c r="S3" s="3"/>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
@@ -1247,7 +1251,9 @@
       <c r="Q4" s="3">
         <v>55</v>
       </c>
-      <c r="R4" s="3"/>
+      <c r="R4" s="3">
+        <v>93</v>
+      </c>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
@@ -1340,7 +1346,9 @@
       <c r="Q5" s="3">
         <v>54</v>
       </c>
-      <c r="R5" s="3"/>
+      <c r="R5" s="3">
+        <v>93</v>
+      </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
@@ -1433,7 +1441,9 @@
       <c r="Q6" s="3">
         <v>53</v>
       </c>
-      <c r="R6" s="3"/>
+      <c r="R6" s="3">
+        <v>87</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
@@ -1526,7 +1536,9 @@
       <c r="Q7" s="3">
         <v>85</v>
       </c>
-      <c r="R7" s="3"/>
+      <c r="R7" s="3">
+        <v>93</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
@@ -1619,7 +1631,9 @@
       <c r="Q8" s="3">
         <v>66</v>
       </c>
-      <c r="R8" s="3"/>
+      <c r="R8" s="3">
+        <v>77</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
@@ -1712,7 +1726,9 @@
       <c r="Q9" s="3">
         <v>21</v>
       </c>
-      <c r="R9" s="3"/>
+      <c r="R9" s="3">
+        <v>90</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
@@ -1805,7 +1821,9 @@
       <c r="Q10" s="3">
         <v>47</v>
       </c>
-      <c r="R10" s="3"/>
+      <c r="R10" s="3">
+        <v>97</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
@@ -1898,7 +1916,9 @@
       <c r="Q11" s="3">
         <v>42</v>
       </c>
-      <c r="R11" s="3"/>
+      <c r="R11" s="3">
+        <v>87</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -1991,7 +2011,9 @@
       <c r="Q12" s="3">
         <v>70</v>
       </c>
-      <c r="R12" s="3"/>
+      <c r="R12" s="3">
+        <v>93</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -2084,7 +2106,9 @@
       <c r="Q13" s="3">
         <v>66</v>
       </c>
-      <c r="R13" s="3"/>
+      <c r="R13" s="3">
+        <v>80</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
@@ -2177,7 +2201,9 @@
       <c r="Q14" s="3">
         <v>29</v>
       </c>
-      <c r="R14" s="3"/>
+      <c r="R14" s="3">
+        <v>47</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
@@ -2270,7 +2296,9 @@
       <c r="Q15" s="3">
         <v>59</v>
       </c>
-      <c r="R15" s="3"/>
+      <c r="R15" s="3">
+        <v>100</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
@@ -2363,7 +2391,9 @@
       <c r="Q16" s="3">
         <v>59</v>
       </c>
-      <c r="R16" s="3"/>
+      <c r="R16" s="3">
+        <v>83</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -2456,7 +2486,9 @@
       <c r="Q17" s="3">
         <v>72</v>
       </c>
-      <c r="R17" s="3"/>
+      <c r="R17" s="3">
+        <v>87</v>
+      </c>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -2544,12 +2576,14 @@
         <v>81</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="Q18" s="3">
         <v>21</v>
       </c>
-      <c r="R18" s="3"/>
+      <c r="R18" s="3">
+        <v>73</v>
+      </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
@@ -2642,7 +2676,9 @@
       <c r="Q19" s="3">
         <v>41</v>
       </c>
-      <c r="R19" s="3"/>
+      <c r="R19" s="3">
+        <v>80</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
@@ -2735,7 +2771,9 @@
       <c r="Q20" s="3">
         <v>33</v>
       </c>
-      <c r="R20" s="3"/>
+      <c r="R20" s="3">
+        <v>87</v>
+      </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
@@ -2828,7 +2866,9 @@
       <c r="Q21" s="3">
         <v>44</v>
       </c>
-      <c r="R21" s="3"/>
+      <c r="R21" s="3">
+        <v>83</v>
+      </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
@@ -2921,7 +2961,9 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3"/>
+      <c r="R22" s="3">
+        <v>73</v>
+      </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
@@ -3014,7 +3056,9 @@
       <c r="Q23" s="3">
         <v>21</v>
       </c>
-      <c r="R23" s="3"/>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
@@ -3107,7 +3151,9 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3"/>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>

--- a/static/data/quizz.xlsx
+++ b/static/data/quizz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DERS\Archive\web\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A9DA84-DCA6-46FA-9BE0-0DD931B9E1FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752220CF-C38E-4FA7-AD44-7D1EFD04AEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7710" yWindow="240" windowWidth="11130" windowHeight="17055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023-2024" sheetId="2" r:id="rId1"/>
@@ -829,7 +829,7 @@
   <dimension ref="A1:BH24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,9 +1062,11 @@
         <v>0</v>
       </c>
       <c r="R2" s="3">
+        <v>100</v>
+      </c>
+      <c r="S2" s="3">
         <v>0</v>
       </c>
-      <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
@@ -1157,9 +1159,11 @@
         <v>67</v>
       </c>
       <c r="R3" s="3">
-        <v>0</v>
-      </c>
-      <c r="S3" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="S3" s="3">
+        <v>84</v>
+      </c>
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
@@ -1254,7 +1258,9 @@
       <c r="R4" s="3">
         <v>93</v>
       </c>
-      <c r="S4" s="3"/>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
@@ -1349,7 +1355,9 @@
       <c r="R5" s="3">
         <v>93</v>
       </c>
-      <c r="S5" s="3"/>
+      <c r="S5" s="3">
+        <v>100</v>
+      </c>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
@@ -1444,7 +1452,9 @@
       <c r="R6" s="3">
         <v>87</v>
       </c>
-      <c r="S6" s="3"/>
+      <c r="S6" s="3">
+        <v>84</v>
+      </c>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
@@ -1539,7 +1549,9 @@
       <c r="R7" s="3">
         <v>93</v>
       </c>
-      <c r="S7" s="3"/>
+      <c r="S7" s="3">
+        <v>88</v>
+      </c>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
@@ -1634,7 +1646,9 @@
       <c r="R8" s="3">
         <v>77</v>
       </c>
-      <c r="S8" s="3"/>
+      <c r="S8" s="3">
+        <v>84</v>
+      </c>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
@@ -1729,7 +1743,9 @@
       <c r="R9" s="3">
         <v>90</v>
       </c>
-      <c r="S9" s="3"/>
+      <c r="S9" s="3">
+        <v>88</v>
+      </c>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
@@ -1824,7 +1840,9 @@
       <c r="R10" s="3">
         <v>97</v>
       </c>
-      <c r="S10" s="3"/>
+      <c r="S10" s="3">
+        <v>92</v>
+      </c>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
@@ -1919,7 +1937,9 @@
       <c r="R11" s="3">
         <v>87</v>
       </c>
-      <c r="S11" s="3"/>
+      <c r="S11" s="3">
+        <v>76</v>
+      </c>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
@@ -2014,7 +2034,9 @@
       <c r="R12" s="3">
         <v>93</v>
       </c>
-      <c r="S12" s="3"/>
+      <c r="S12" s="3">
+        <v>96</v>
+      </c>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
@@ -2109,7 +2131,9 @@
       <c r="R13" s="3">
         <v>80</v>
       </c>
-      <c r="S13" s="3"/>
+      <c r="S13" s="3">
+        <v>64</v>
+      </c>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
@@ -2204,7 +2228,9 @@
       <c r="R14" s="3">
         <v>47</v>
       </c>
-      <c r="S14" s="3"/>
+      <c r="S14" s="3">
+        <v>72</v>
+      </c>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
@@ -2299,7 +2325,9 @@
       <c r="R15" s="3">
         <v>100</v>
       </c>
-      <c r="S15" s="3"/>
+      <c r="S15" s="3">
+        <v>88</v>
+      </c>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
@@ -2394,7 +2422,9 @@
       <c r="R16" s="3">
         <v>83</v>
       </c>
-      <c r="S16" s="3"/>
+      <c r="S16" s="3">
+        <v>84</v>
+      </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
@@ -2489,7 +2519,9 @@
       <c r="R17" s="3">
         <v>87</v>
       </c>
-      <c r="S17" s="3"/>
+      <c r="S17" s="3">
+        <v>76</v>
+      </c>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
@@ -2570,7 +2602,7 @@
         <v>83</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="O18" s="3">
         <v>81</v>
@@ -2584,7 +2616,9 @@
       <c r="R18" s="3">
         <v>73</v>
       </c>
-      <c r="S18" s="3"/>
+      <c r="S18" s="3">
+        <v>60</v>
+      </c>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -2679,7 +2713,9 @@
       <c r="R19" s="3">
         <v>80</v>
       </c>
-      <c r="S19" s="3"/>
+      <c r="S19" s="3">
+        <v>84</v>
+      </c>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
@@ -2774,7 +2810,9 @@
       <c r="R20" s="3">
         <v>87</v>
       </c>
-      <c r="S20" s="3"/>
+      <c r="S20" s="3">
+        <v>84</v>
+      </c>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
@@ -2869,7 +2907,9 @@
       <c r="R21" s="3">
         <v>83</v>
       </c>
-      <c r="S21" s="3"/>
+      <c r="S21" s="3">
+        <v>72</v>
+      </c>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
@@ -2964,7 +3004,9 @@
       <c r="R22" s="3">
         <v>73</v>
       </c>
-      <c r="S22" s="3"/>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
@@ -3059,7 +3101,9 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-      <c r="S23" s="3"/>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
@@ -3116,13 +3160,13 @@
         <v>93</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -3154,7 +3198,9 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3"/>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>

--- a/static/data/quizz.xlsx
+++ b/static/data/quizz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DERS\Archive\web\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{752220CF-C38E-4FA7-AD44-7D1EFD04AEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A20288D-7350-4C46-9CEB-5D0ADDF9A60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7710" yWindow="240" windowWidth="11130" windowHeight="17055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023-2024" sheetId="2" r:id="rId1"/>
@@ -829,7 +829,7 @@
   <dimension ref="A1:BH24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+      <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1059,13 +1059,13 @@
         <v>100</v>
       </c>
       <c r="Q2" s="3">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="R2" s="3">
         <v>100</v>
       </c>
       <c r="S2" s="3">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
@@ -1156,7 +1156,7 @@
         <v>80</v>
       </c>
       <c r="Q3" s="3">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R3" s="3">
         <v>87</v>
@@ -1259,7 +1259,7 @@
         <v>93</v>
       </c>
       <c r="S4" s="3">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
@@ -1350,7 +1350,7 @@
         <v>84</v>
       </c>
       <c r="Q5" s="3">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="R5" s="3">
         <v>93</v>
@@ -1544,7 +1544,7 @@
         <v>88</v>
       </c>
       <c r="Q7" s="3">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R7" s="3">
         <v>93</v>
@@ -1641,7 +1641,7 @@
         <v>84</v>
       </c>
       <c r="Q8" s="3">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R8" s="3">
         <v>77</v>
@@ -1932,7 +1932,7 @@
         <v>76</v>
       </c>
       <c r="Q11" s="3">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R11" s="3">
         <v>87</v>
@@ -2417,7 +2417,7 @@
         <v>96</v>
       </c>
       <c r="Q16" s="3">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="R16" s="3">
         <v>83</v>
@@ -2708,7 +2708,7 @@
         <v>80</v>
       </c>
       <c r="Q19" s="3">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="R19" s="3">
         <v>80</v>
@@ -2805,7 +2805,7 @@
         <v>76</v>
       </c>
       <c r="Q20" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="R20" s="3">
         <v>87</v>
@@ -3005,7 +3005,7 @@
         <v>73</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>

--- a/static/data/quizz.xlsx
+++ b/static/data/quizz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DERS\Archive\web\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A20288D-7350-4C46-9CEB-5D0ADDF9A60E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02A93C9-0126-4F84-ACD5-5E5130F12654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28830" yWindow="30" windowWidth="13665" windowHeight="17055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023-2024" sheetId="2" r:id="rId1"/>
@@ -829,7 +829,7 @@
   <dimension ref="A1:BH24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16"/>
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,7 +1067,9 @@
       <c r="S2" s="3">
         <v>96</v>
       </c>
-      <c r="T2" s="3"/>
+      <c r="T2" s="3">
+        <v>90</v>
+      </c>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
@@ -1164,7 +1166,9 @@
       <c r="S3" s="3">
         <v>84</v>
       </c>
-      <c r="T3" s="3"/>
+      <c r="T3" s="3">
+        <v>100</v>
+      </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
@@ -1261,7 +1265,9 @@
       <c r="S4" s="3">
         <v>88</v>
       </c>
-      <c r="T4" s="3"/>
+      <c r="T4" s="3">
+        <v>80</v>
+      </c>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
@@ -1358,7 +1364,9 @@
       <c r="S5" s="3">
         <v>100</v>
       </c>
-      <c r="T5" s="3"/>
+      <c r="T5" s="3">
+        <v>100</v>
+      </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
@@ -1455,7 +1463,9 @@
       <c r="S6" s="3">
         <v>84</v>
       </c>
-      <c r="T6" s="3"/>
+      <c r="T6" s="3">
+        <v>80</v>
+      </c>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
@@ -1552,7 +1562,9 @@
       <c r="S7" s="3">
         <v>88</v>
       </c>
-      <c r="T7" s="3"/>
+      <c r="T7" s="3">
+        <v>100</v>
+      </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
@@ -1649,7 +1661,9 @@
       <c r="S8" s="3">
         <v>84</v>
       </c>
-      <c r="T8" s="3"/>
+      <c r="T8" s="3">
+        <v>80</v>
+      </c>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -1746,7 +1760,9 @@
       <c r="S9" s="3">
         <v>88</v>
       </c>
-      <c r="T9" s="3"/>
+      <c r="T9" s="3">
+        <v>90</v>
+      </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -1843,7 +1859,9 @@
       <c r="S10" s="3">
         <v>92</v>
       </c>
-      <c r="T10" s="3"/>
+      <c r="T10" s="3">
+        <v>100</v>
+      </c>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -1940,7 +1958,9 @@
       <c r="S11" s="3">
         <v>76</v>
       </c>
-      <c r="T11" s="3"/>
+      <c r="T11" s="3">
+        <v>60</v>
+      </c>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
@@ -2037,7 +2057,9 @@
       <c r="S12" s="3">
         <v>96</v>
       </c>
-      <c r="T12" s="3"/>
+      <c r="T12" s="3">
+        <v>80</v>
+      </c>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -2134,7 +2156,9 @@
       <c r="S13" s="3">
         <v>64</v>
       </c>
-      <c r="T13" s="3"/>
+      <c r="T13" s="3">
+        <v>100</v>
+      </c>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
@@ -2231,7 +2255,9 @@
       <c r="S14" s="3">
         <v>72</v>
       </c>
-      <c r="T14" s="3"/>
+      <c r="T14" s="3">
+        <v>80</v>
+      </c>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -2328,7 +2354,9 @@
       <c r="S15" s="3">
         <v>88</v>
       </c>
-      <c r="T15" s="3"/>
+      <c r="T15" s="3">
+        <v>100</v>
+      </c>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
@@ -2425,7 +2453,9 @@
       <c r="S16" s="3">
         <v>84</v>
       </c>
-      <c r="T16" s="3"/>
+      <c r="T16" s="3">
+        <v>90</v>
+      </c>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
@@ -2522,7 +2552,9 @@
       <c r="S17" s="3">
         <v>76</v>
       </c>
-      <c r="T17" s="3"/>
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
@@ -2619,7 +2651,9 @@
       <c r="S18" s="3">
         <v>60</v>
       </c>
-      <c r="T18" s="3"/>
+      <c r="T18" s="3">
+        <v>60</v>
+      </c>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
@@ -2716,7 +2750,9 @@
       <c r="S19" s="3">
         <v>84</v>
       </c>
-      <c r="T19" s="3"/>
+      <c r="T19" s="3">
+        <v>100</v>
+      </c>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
@@ -2813,7 +2849,9 @@
       <c r="S20" s="3">
         <v>84</v>
       </c>
-      <c r="T20" s="3"/>
+      <c r="T20" s="3">
+        <v>60</v>
+      </c>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
@@ -2910,7 +2948,9 @@
       <c r="S21" s="3">
         <v>72</v>
       </c>
-      <c r="T21" s="3"/>
+      <c r="T21" s="3">
+        <v>70</v>
+      </c>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
@@ -3007,7 +3047,9 @@
       <c r="S22" s="3">
         <v>60</v>
       </c>
-      <c r="T22" s="3"/>
+      <c r="T22" s="3">
+        <v>70</v>
+      </c>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
@@ -3104,7 +3146,9 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-      <c r="T23" s="3"/>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
@@ -3178,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -3201,7 +3245,9 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3"/>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>

--- a/static/data/quizz.xlsx
+++ b/static/data/quizz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DERS\Archive\web\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02A93C9-0126-4F84-ACD5-5E5130F12654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99225FCA-B250-41B9-A6C2-9FC9EB44CD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28830" yWindow="30" windowWidth="13665" windowHeight="17055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -829,7 +829,7 @@
   <dimension ref="A1:BH24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,7 +1070,9 @@
       <c r="T2" s="3">
         <v>90</v>
       </c>
-      <c r="U2" s="3"/>
+      <c r="U2" s="3">
+        <v>94</v>
+      </c>
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
@@ -1169,7 +1171,9 @@
       <c r="T3" s="3">
         <v>100</v>
       </c>
-      <c r="U3" s="3"/>
+      <c r="U3" s="3">
+        <v>86</v>
+      </c>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
@@ -1268,7 +1272,9 @@
       <c r="T4" s="3">
         <v>80</v>
       </c>
-      <c r="U4" s="3"/>
+      <c r="U4" s="3">
+        <v>100</v>
+      </c>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
@@ -1367,7 +1373,9 @@
       <c r="T5" s="3">
         <v>100</v>
       </c>
-      <c r="U5" s="3"/>
+      <c r="U5" s="3">
+        <v>100</v>
+      </c>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
@@ -1466,7 +1474,9 @@
       <c r="T6" s="3">
         <v>80</v>
       </c>
-      <c r="U6" s="3"/>
+      <c r="U6" s="3">
+        <v>83</v>
+      </c>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
@@ -1565,7 +1575,9 @@
       <c r="T7" s="3">
         <v>100</v>
       </c>
-      <c r="U7" s="3"/>
+      <c r="U7" s="3">
+        <v>94</v>
+      </c>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
@@ -1664,7 +1676,9 @@
       <c r="T8" s="3">
         <v>80</v>
       </c>
-      <c r="U8" s="3"/>
+      <c r="U8" s="3">
+        <v>77</v>
+      </c>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
@@ -1763,7 +1777,9 @@
       <c r="T9" s="3">
         <v>90</v>
       </c>
-      <c r="U9" s="3"/>
+      <c r="U9" s="3">
+        <v>80</v>
+      </c>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
@@ -1862,7 +1878,9 @@
       <c r="T10" s="3">
         <v>100</v>
       </c>
-      <c r="U10" s="3"/>
+      <c r="U10" s="3">
+        <v>86</v>
+      </c>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
@@ -1961,7 +1979,9 @@
       <c r="T11" s="3">
         <v>60</v>
       </c>
-      <c r="U11" s="3"/>
+      <c r="U11" s="3">
+        <v>97</v>
+      </c>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
@@ -2060,7 +2080,9 @@
       <c r="T12" s="3">
         <v>80</v>
       </c>
-      <c r="U12" s="3"/>
+      <c r="U12" s="3">
+        <v>91</v>
+      </c>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
@@ -2159,7 +2181,9 @@
       <c r="T13" s="3">
         <v>100</v>
       </c>
-      <c r="U13" s="3"/>
+      <c r="U13" s="3">
+        <v>86</v>
+      </c>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
@@ -2258,7 +2282,9 @@
       <c r="T14" s="3">
         <v>80</v>
       </c>
-      <c r="U14" s="3"/>
+      <c r="U14" s="3">
+        <v>89</v>
+      </c>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
@@ -2357,7 +2383,9 @@
       <c r="T15" s="3">
         <v>100</v>
       </c>
-      <c r="U15" s="3"/>
+      <c r="U15" s="3">
+        <v>89</v>
+      </c>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
@@ -2456,7 +2484,9 @@
       <c r="T16" s="3">
         <v>90</v>
       </c>
-      <c r="U16" s="3"/>
+      <c r="U16" s="3">
+        <v>63</v>
+      </c>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
@@ -2555,7 +2585,9 @@
       <c r="T17" s="3">
         <v>100</v>
       </c>
-      <c r="U17" s="3"/>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
@@ -2654,7 +2686,9 @@
       <c r="T18" s="3">
         <v>60</v>
       </c>
-      <c r="U18" s="3"/>
+      <c r="U18" s="3">
+        <v>49</v>
+      </c>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
@@ -2753,7 +2787,9 @@
       <c r="T19" s="3">
         <v>100</v>
       </c>
-      <c r="U19" s="3"/>
+      <c r="U19" s="3">
+        <v>66</v>
+      </c>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
@@ -2852,7 +2888,9 @@
       <c r="T20" s="3">
         <v>60</v>
       </c>
-      <c r="U20" s="3"/>
+      <c r="U20" s="3">
+        <v>71</v>
+      </c>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
@@ -2951,7 +2989,9 @@
       <c r="T21" s="3">
         <v>70</v>
       </c>
-      <c r="U21" s="3"/>
+      <c r="U21" s="3">
+        <v>60</v>
+      </c>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
@@ -3050,7 +3090,9 @@
       <c r="T22" s="3">
         <v>70</v>
       </c>
-      <c r="U22" s="3"/>
+      <c r="U22" s="3">
+        <v>34</v>
+      </c>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
@@ -3114,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J23" s="2">
         <v>0</v>
@@ -3149,7 +3191,9 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-      <c r="U23" s="3"/>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
@@ -3216,16 +3260,16 @@
         <v>0</v>
       </c>
       <c r="J24" s="2">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="L24" s="3">
         <v>42</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -3248,7 +3292,9 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="U24" s="3"/>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
       <c r="X24" s="3"/>

--- a/static/data/quizz.xlsx
+++ b/static/data/quizz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DERS\Archive\web\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99225FCA-B250-41B9-A6C2-9FC9EB44CD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B645BD4E-1DDD-4E94-A386-EFB6DD3CDCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28830" yWindow="30" windowWidth="13665" windowHeight="17055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -829,7 +829,7 @@
   <dimension ref="A1:BH24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2586,7 +2586,7 @@
         <v>100</v>
       </c>
       <c r="U17" s="3">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>

--- a/static/data/quizz.xlsx
+++ b/static/data/quizz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DERS\Archive\web\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B645BD4E-1DDD-4E94-A386-EFB6DD3CDCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527A31D4-8B0D-41F2-AA26-079F03F33CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="30" windowWidth="13665" windowHeight="17055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6405" yWindow="225" windowWidth="13665" windowHeight="17055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023-2024" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>İnformasiaya və informasiya prosesləri 1</t>
   </si>
@@ -239,12 +239,6 @@
     <t>Nuriyyə Əmiraslanova</t>
   </si>
   <si>
-    <t>Ruslan Cəfərov</t>
-  </si>
-  <si>
-    <t>Sadiq Namazlı</t>
-  </si>
-  <si>
     <t>Ramiz Rəfizadə</t>
   </si>
   <si>
@@ -276,6 +270,9 @@
   </si>
   <si>
     <t>*** Yazılı imtahan (çətin) ***</t>
+  </si>
+  <si>
+    <t>Uğur</t>
   </si>
 </sst>
 </file>
@@ -466,6 +463,34 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="1"/>
       </font>
@@ -511,34 +536,6 @@
         <patternFill>
           <fgColor theme="0"/>
           <bgColor rgb="FFC00000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -826,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BH24"/>
+  <dimension ref="A1:BH23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="W29" sqref="W29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,22 +870,22 @@
         <v>9</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>30</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>4</v>
@@ -1073,7 +1070,9 @@
       <c r="U2" s="3">
         <v>94</v>
       </c>
-      <c r="V2" s="3"/>
+      <c r="V2" s="3">
+        <v>100</v>
+      </c>
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
@@ -1174,7 +1173,9 @@
       <c r="U3" s="3">
         <v>86</v>
       </c>
-      <c r="V3" s="3"/>
+      <c r="V3" s="3">
+        <v>100</v>
+      </c>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
@@ -1275,7 +1276,9 @@
       <c r="U4" s="3">
         <v>100</v>
       </c>
-      <c r="V4" s="3"/>
+      <c r="V4" s="3">
+        <v>100</v>
+      </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
@@ -1313,14 +1316,14 @@
       <c r="BE4" s="1"/>
     </row>
     <row r="5" spans="1:60" ht="24.75" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
-        <v>66</v>
+      <c r="A5" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="B5" s="3">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C5" s="3">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D5" s="3">
         <v>97</v>
@@ -1329,54 +1332,56 @@
         <v>90</v>
       </c>
       <c r="F5" s="3">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G5" s="3">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="H5" s="3">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I5" s="3">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J5" s="2">
         <v>97</v>
       </c>
       <c r="K5" s="3">
+        <v>90</v>
+      </c>
+      <c r="L5" s="3">
         <v>87</v>
       </c>
-      <c r="L5" s="3">
-        <v>81</v>
-      </c>
       <c r="M5" s="3">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N5" s="3">
+        <v>90</v>
+      </c>
+      <c r="O5" s="3">
+        <v>88</v>
+      </c>
+      <c r="P5" s="3">
+        <v>92</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>53</v>
+      </c>
+      <c r="R5" s="3">
         <v>87</v>
       </c>
-      <c r="O5" s="3">
-        <v>100</v>
-      </c>
-      <c r="P5" s="3">
+      <c r="S5" s="3">
         <v>84</v>
       </c>
-      <c r="Q5" s="3">
-        <v>57</v>
-      </c>
-      <c r="R5" s="3">
-        <v>93</v>
-      </c>
-      <c r="S5" s="3">
-        <v>100</v>
-      </c>
       <c r="T5" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="U5" s="3">
-        <v>100</v>
-      </c>
-      <c r="V5" s="3"/>
+        <v>83</v>
+      </c>
+      <c r="V5" s="3">
+        <v>84</v>
+      </c>
       <c r="W5" s="3"/>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
@@ -1414,26 +1419,26 @@
       <c r="BE5" s="1"/>
     </row>
     <row r="6" spans="1:60" ht="24.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
-        <v>63</v>
+      <c r="A6" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B6" s="3">
         <v>90</v>
       </c>
       <c r="C6" s="3">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D6" s="3">
         <v>97</v>
       </c>
       <c r="E6" s="2">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F6" s="3">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G6" s="3">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="H6" s="3">
         <v>100</v>
@@ -1445,39 +1450,41 @@
         <v>97</v>
       </c>
       <c r="K6" s="3">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L6" s="3">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="M6" s="3">
         <v>97</v>
       </c>
       <c r="N6" s="3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="O6" s="3">
+        <v>100</v>
+      </c>
+      <c r="P6" s="3">
         <v>88</v>
       </c>
-      <c r="P6" s="3">
-        <v>92</v>
-      </c>
       <c r="Q6" s="3">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="R6" s="3">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="S6" s="3">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T6" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="U6" s="3">
-        <v>83</v>
-      </c>
-      <c r="V6" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="V6" s="3">
+        <v>88</v>
+      </c>
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
@@ -1516,19 +1523,19 @@
     </row>
     <row r="7" spans="1:60" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B7" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C7" s="3">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D7" s="3">
+        <v>87</v>
+      </c>
+      <c r="E7" s="2">
         <v>97</v>
-      </c>
-      <c r="E7" s="2">
-        <v>87</v>
       </c>
       <c r="F7" s="3">
         <v>84</v>
@@ -1540,45 +1547,47 @@
         <v>100</v>
       </c>
       <c r="I7" s="3">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="J7" s="2">
         <v>97</v>
       </c>
       <c r="K7" s="3">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="L7" s="3">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="M7" s="3">
         <v>97</v>
       </c>
       <c r="N7" s="3">
+        <v>100</v>
+      </c>
+      <c r="O7" s="3">
+        <v>84</v>
+      </c>
+      <c r="P7" s="3">
+        <v>84</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>69</v>
+      </c>
+      <c r="R7" s="3">
+        <v>77</v>
+      </c>
+      <c r="S7" s="3">
+        <v>84</v>
+      </c>
+      <c r="T7" s="3">
         <v>80</v>
       </c>
-      <c r="O7" s="3">
-        <v>100</v>
-      </c>
-      <c r="P7" s="3">
-        <v>88</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>88</v>
-      </c>
-      <c r="R7" s="3">
-        <v>93</v>
-      </c>
-      <c r="S7" s="3">
-        <v>88</v>
-      </c>
-      <c r="T7" s="3">
-        <v>100</v>
-      </c>
       <c r="U7" s="3">
-        <v>94</v>
-      </c>
-      <c r="V7" s="3"/>
+        <v>77</v>
+      </c>
+      <c r="V7" s="3">
+        <v>76</v>
+      </c>
       <c r="W7" s="3"/>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
@@ -1617,46 +1626,46 @@
     </row>
     <row r="8" spans="1:60" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B8" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C8" s="3">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D8" s="3">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2">
         <v>97</v>
       </c>
       <c r="F8" s="3">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G8" s="3">
+        <v>90</v>
+      </c>
+      <c r="H8" s="3">
+        <v>93</v>
+      </c>
+      <c r="I8" s="3">
+        <v>90</v>
+      </c>
+      <c r="J8" s="2">
         <v>94</v>
-      </c>
-      <c r="H8" s="3">
-        <v>100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
-      <c r="J8" s="2">
-        <v>97</v>
       </c>
       <c r="K8" s="3">
         <v>90</v>
       </c>
       <c r="L8" s="3">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M8" s="3">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="O8" s="3">
         <v>84</v>
@@ -1665,21 +1674,23 @@
         <v>84</v>
       </c>
       <c r="Q8" s="3">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="R8" s="3">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="S8" s="3">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="T8" s="3">
+        <v>90</v>
+      </c>
+      <c r="U8" s="3">
         <v>80</v>
       </c>
-      <c r="U8" s="3">
-        <v>77</v>
-      </c>
-      <c r="V8" s="3"/>
+      <c r="V8" s="3">
+        <v>92</v>
+      </c>
       <c r="W8" s="3"/>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
@@ -1718,69 +1729,71 @@
     </row>
     <row r="9" spans="1:60" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B9" s="3">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C9" s="3">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D9" s="3">
+        <v>87</v>
+      </c>
+      <c r="E9" s="2">
+        <v>87</v>
+      </c>
+      <c r="F9" s="3">
+        <v>88</v>
+      </c>
+      <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
         <v>97</v>
       </c>
-      <c r="E9" s="2">
+      <c r="J9" s="2">
         <v>97</v>
       </c>
-      <c r="F9" s="3">
+      <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
+        <v>91</v>
+      </c>
+      <c r="M9" s="3">
+        <v>89</v>
+      </c>
+      <c r="N9" s="3">
+        <v>87</v>
+      </c>
+      <c r="O9" s="3">
+        <v>94</v>
+      </c>
+      <c r="P9" s="3">
         <v>92</v>
       </c>
-      <c r="G9" s="3">
-        <v>90</v>
-      </c>
-      <c r="H9" s="3">
-        <v>93</v>
-      </c>
-      <c r="I9" s="3">
-        <v>90</v>
-      </c>
-      <c r="J9" s="2">
-        <v>94</v>
-      </c>
-      <c r="K9" s="3">
-        <v>90</v>
-      </c>
-      <c r="L9" s="3">
-        <v>78</v>
-      </c>
-      <c r="M9" s="3">
-        <v>100</v>
-      </c>
-      <c r="N9" s="3">
-        <v>80</v>
-      </c>
-      <c r="O9" s="3">
-        <v>84</v>
-      </c>
-      <c r="P9" s="3">
-        <v>84</v>
-      </c>
       <c r="Q9" s="3">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="R9" s="3">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="S9" s="3">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="T9" s="3">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>80</v>
-      </c>
-      <c r="V9" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="V9" s="3">
+        <v>100</v>
+      </c>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
@@ -1819,69 +1832,71 @@
     </row>
     <row r="10" spans="1:60" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B10" s="3">
+        <v>100</v>
+      </c>
+      <c r="C10" s="3">
+        <v>80</v>
+      </c>
+      <c r="D10" s="3">
         <v>90</v>
       </c>
-      <c r="C10" s="3">
+      <c r="E10" s="2">
+        <v>77</v>
+      </c>
+      <c r="F10" s="3">
+        <v>96</v>
+      </c>
+      <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>98</v>
+      </c>
+      <c r="I10" s="3">
+        <v>100</v>
+      </c>
+      <c r="J10" s="2">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
+        <v>97</v>
+      </c>
+      <c r="L10" s="3">
+        <v>79</v>
+      </c>
+      <c r="M10" s="3">
+        <v>97</v>
+      </c>
+      <c r="N10" s="3">
         <v>93</v>
       </c>
-      <c r="D10" s="3">
+      <c r="O10" s="3">
+        <v>88</v>
+      </c>
+      <c r="P10" s="3">
+        <v>76</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>45</v>
+      </c>
+      <c r="R10" s="3">
         <v>87</v>
       </c>
-      <c r="E10" s="2">
-        <v>87</v>
-      </c>
-      <c r="F10" s="3">
+      <c r="S10" s="3">
+        <v>76</v>
+      </c>
+      <c r="T10" s="3">
+        <v>60</v>
+      </c>
+      <c r="U10" s="3">
+        <v>97</v>
+      </c>
+      <c r="V10" s="3">
         <v>88</v>
       </c>
-      <c r="G10" s="3">
-        <v>100</v>
-      </c>
-      <c r="H10" s="3">
-        <v>100</v>
-      </c>
-      <c r="I10" s="3">
-        <v>97</v>
-      </c>
-      <c r="J10" s="2">
-        <v>97</v>
-      </c>
-      <c r="K10" s="3">
-        <v>100</v>
-      </c>
-      <c r="L10" s="3">
-        <v>91</v>
-      </c>
-      <c r="M10" s="3">
-        <v>89</v>
-      </c>
-      <c r="N10" s="3">
-        <v>87</v>
-      </c>
-      <c r="O10" s="3">
-        <v>94</v>
-      </c>
-      <c r="P10" s="3">
-        <v>92</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>47</v>
-      </c>
-      <c r="R10" s="3">
-        <v>97</v>
-      </c>
-      <c r="S10" s="3">
-        <v>92</v>
-      </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
-      <c r="U10" s="3">
-        <v>86</v>
-      </c>
-      <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
@@ -1919,20 +1934,20 @@
       <c r="BE10" s="1"/>
     </row>
     <row r="11" spans="1:60" ht="24.75" x14ac:dyDescent="0.4">
-      <c r="A11" s="4" t="s">
-        <v>54</v>
+      <c r="A11" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="B11" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C11" s="3">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D11" s="3">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F11" s="3">
         <v>96</v>
@@ -1944,45 +1959,47 @@
         <v>98</v>
       </c>
       <c r="I11" s="3">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J11" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K11" s="3">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L11" s="3">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="M11" s="3">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N11" s="3">
+        <v>100</v>
+      </c>
+      <c r="O11" s="3">
+        <v>100</v>
+      </c>
+      <c r="P11" s="3">
+        <v>92</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>70</v>
+      </c>
+      <c r="R11" s="3">
         <v>93</v>
       </c>
-      <c r="O11" s="3">
-        <v>88</v>
-      </c>
-      <c r="P11" s="3">
-        <v>76</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>45</v>
-      </c>
-      <c r="R11" s="3">
-        <v>87</v>
-      </c>
       <c r="S11" s="3">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="T11" s="3">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="U11" s="3">
-        <v>97</v>
-      </c>
-      <c r="V11" s="3"/>
+        <v>91</v>
+      </c>
+      <c r="V11" s="3">
+        <v>92</v>
+      </c>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
@@ -2020,70 +2037,72 @@
       <c r="BE11" s="1"/>
     </row>
     <row r="12" spans="1:60" ht="24.75" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
-        <v>60</v>
+      <c r="A12" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="B12" s="3">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C12" s="3">
+        <v>93</v>
+      </c>
+      <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="2">
+        <v>73</v>
+      </c>
+      <c r="F12" s="3">
+        <v>80</v>
+      </c>
+      <c r="G12" s="3">
+        <v>94</v>
+      </c>
+      <c r="H12" s="3">
+        <v>93</v>
+      </c>
+      <c r="I12" s="3">
         <v>77</v>
-      </c>
-      <c r="D12" s="3">
-        <v>87</v>
-      </c>
-      <c r="E12" s="2">
-        <v>93</v>
-      </c>
-      <c r="F12" s="3">
-        <v>96</v>
-      </c>
-      <c r="G12" s="3">
-        <v>100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>98</v>
-      </c>
-      <c r="I12" s="3">
-        <v>93</v>
       </c>
       <c r="J12" s="2">
         <v>97</v>
       </c>
       <c r="K12" s="3">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="L12" s="3">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M12" s="3">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N12" s="3">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="O12" s="3">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="P12" s="3">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="3">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="R12" s="3">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="S12" s="3">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="T12" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="U12" s="3">
-        <v>91</v>
-      </c>
-      <c r="V12" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="V12" s="3">
+        <v>100</v>
+      </c>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
@@ -2121,70 +2140,72 @@
       <c r="BE12" s="1"/>
     </row>
     <row r="13" spans="1:60" ht="24.75" x14ac:dyDescent="0.4">
-      <c r="A13" s="4" t="s">
-        <v>55</v>
+      <c r="A13" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="B13" s="3">
         <v>95</v>
       </c>
       <c r="C13" s="3">
+        <v>80</v>
+      </c>
+      <c r="D13" s="3">
         <v>93</v>
       </c>
-      <c r="D13" s="3">
-        <v>100</v>
-      </c>
       <c r="E13" s="2">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="F13" s="3">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G13" s="3">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H13" s="3">
         <v>93</v>
       </c>
       <c r="I13" s="3">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J13" s="2">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="K13" s="3">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L13" s="3">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="M13" s="3">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="N13" s="3">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="O13" s="3">
+        <v>88</v>
+      </c>
+      <c r="P13" s="3">
+        <v>88</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>29</v>
+      </c>
+      <c r="R13" s="3">
+        <v>47</v>
+      </c>
+      <c r="S13" s="3">
+        <v>72</v>
+      </c>
+      <c r="T13" s="3">
+        <v>80</v>
+      </c>
+      <c r="U13" s="3">
+        <v>89</v>
+      </c>
+      <c r="V13" s="3">
         <v>84</v>
       </c>
-      <c r="P13" s="3">
-        <v>68</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>66</v>
-      </c>
-      <c r="R13" s="3">
-        <v>80</v>
-      </c>
-      <c r="S13" s="3">
-        <v>64</v>
-      </c>
-      <c r="T13" s="3">
-        <v>100</v>
-      </c>
-      <c r="U13" s="3">
-        <v>86</v>
-      </c>
-      <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
@@ -2222,70 +2243,72 @@
       <c r="BE13" s="1"/>
     </row>
     <row r="14" spans="1:60" ht="24.75" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
-        <v>56</v>
+      <c r="A14" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="B14" s="3">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C14" s="3">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D14" s="3">
         <v>93</v>
       </c>
       <c r="E14" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F14" s="3">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G14" s="3">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="H14" s="3">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="I14" s="3">
+        <v>100</v>
+      </c>
+      <c r="J14" s="2">
+        <v>100</v>
+      </c>
+      <c r="K14" s="3">
         <v>87</v>
       </c>
-      <c r="J14" s="2">
-        <v>83</v>
-      </c>
-      <c r="K14" s="3">
-        <v>80</v>
-      </c>
       <c r="L14" s="3">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M14" s="3">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="N14" s="3">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="O14" s="3">
         <v>88</v>
       </c>
       <c r="P14" s="3">
+        <v>92</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>59</v>
+      </c>
+      <c r="R14" s="3">
+        <v>100</v>
+      </c>
+      <c r="S14" s="3">
         <v>88</v>
       </c>
-      <c r="Q14" s="3">
-        <v>29</v>
-      </c>
-      <c r="R14" s="3">
-        <v>47</v>
-      </c>
-      <c r="S14" s="3">
-        <v>72</v>
-      </c>
       <c r="T14" s="3">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="U14" s="3">
         <v>89</v>
       </c>
-      <c r="V14" s="3"/>
+      <c r="V14" s="3">
+        <v>96</v>
+      </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
@@ -2307,7 +2330,7 @@
       <c r="AO14" s="2"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2"/>
-      <c r="AR14" s="2"/>
+      <c r="AR14" s="10"/>
       <c r="AS14" s="2"/>
       <c r="AT14" s="2"/>
       <c r="AU14" s="2"/>
@@ -2324,40 +2347,40 @@
     </row>
     <row r="15" spans="1:60" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B15" s="3">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C15" s="3">
         <v>73</v>
       </c>
       <c r="D15" s="3">
+        <v>90</v>
+      </c>
+      <c r="E15" s="12">
+        <v>80</v>
+      </c>
+      <c r="F15" s="3">
+        <v>96</v>
+      </c>
+      <c r="G15" s="3">
+        <v>94</v>
+      </c>
+      <c r="H15" s="3">
+        <v>98</v>
+      </c>
+      <c r="I15" s="3">
+        <v>87</v>
+      </c>
+      <c r="J15" s="12">
+        <v>91</v>
+      </c>
+      <c r="K15" s="3">
         <v>93</v>
       </c>
-      <c r="E15" s="2">
-        <v>93</v>
-      </c>
-      <c r="F15" s="3">
-        <v>92</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="L15" s="3">
         <v>97</v>
-      </c>
-      <c r="H15" s="3">
-        <v>100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>100</v>
-      </c>
-      <c r="J15" s="2">
-        <v>100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>87</v>
-      </c>
-      <c r="L15" s="3">
-        <v>85</v>
       </c>
       <c r="M15" s="3">
         <v>100</v>
@@ -2366,27 +2389,29 @@
         <v>97</v>
       </c>
       <c r="O15" s="3">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P15" s="3">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q15" s="3">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="R15" s="3">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="S15" s="3">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="T15" s="3">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="U15" s="3">
-        <v>89</v>
-      </c>
-      <c r="V15" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="V15" s="3">
+        <v>64</v>
+      </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
@@ -2408,7 +2433,7 @@
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
-      <c r="AR15" s="10"/>
+      <c r="AR15" s="2"/>
       <c r="AS15" s="2"/>
       <c r="AT15" s="2"/>
       <c r="AU15" s="2"/>
@@ -2425,69 +2450,71 @@
     </row>
     <row r="16" spans="1:60" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A16" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B16" s="3">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D16" s="3">
-        <v>90</v>
-      </c>
-      <c r="E16" s="12">
-        <v>80</v>
+        <v>87</v>
+      </c>
+      <c r="E16" s="2">
+        <v>83</v>
       </c>
       <c r="F16" s="3">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G16" s="3">
+        <v>87</v>
+      </c>
+      <c r="H16" s="3">
+        <v>78</v>
+      </c>
+      <c r="I16" s="3">
+        <v>83</v>
+      </c>
+      <c r="J16" s="2">
+        <v>83</v>
+      </c>
+      <c r="K16" s="3">
+        <v>83</v>
+      </c>
+      <c r="L16" s="3">
+        <v>84</v>
+      </c>
+      <c r="M16" s="3">
         <v>94</v>
       </c>
-      <c r="H16" s="3">
-        <v>98</v>
-      </c>
-      <c r="I16" s="3">
-        <v>87</v>
-      </c>
-      <c r="J16" s="12">
-        <v>91</v>
-      </c>
-      <c r="K16" s="3">
-        <v>93</v>
-      </c>
-      <c r="L16" s="3">
-        <v>97</v>
-      </c>
-      <c r="M16" s="3">
-        <v>100</v>
-      </c>
       <c r="N16" s="3">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="O16" s="3">
         <v>91</v>
       </c>
       <c r="P16" s="3">
+        <v>88</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>72</v>
+      </c>
+      <c r="R16" s="3">
+        <v>87</v>
+      </c>
+      <c r="S16" s="3">
+        <v>76</v>
+      </c>
+      <c r="T16" s="3">
+        <v>100</v>
+      </c>
+      <c r="U16" s="3">
+        <v>91</v>
+      </c>
+      <c r="V16" s="3">
         <v>96</v>
       </c>
-      <c r="Q16" s="3">
-        <v>62</v>
-      </c>
-      <c r="R16" s="3">
-        <v>83</v>
-      </c>
-      <c r="S16" s="3">
-        <v>84</v>
-      </c>
-      <c r="T16" s="3">
-        <v>90</v>
-      </c>
-      <c r="U16" s="3">
-        <v>63</v>
-      </c>
-      <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
@@ -2526,69 +2553,71 @@
     </row>
     <row r="17" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A17" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B17" s="3">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C17" s="3">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D17" s="3">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E17" s="2">
+        <v>80</v>
+      </c>
+      <c r="F17" s="3">
+        <v>88</v>
+      </c>
+      <c r="G17" s="3">
+        <v>61</v>
+      </c>
+      <c r="H17" s="3">
+        <v>53</v>
+      </c>
+      <c r="I17" s="3">
+        <v>70</v>
+      </c>
+      <c r="J17" s="2">
+        <v>71</v>
+      </c>
+      <c r="K17" s="3">
+        <v>60</v>
+      </c>
+      <c r="L17" s="3">
+        <v>47</v>
+      </c>
+      <c r="M17" s="3">
         <v>83</v>
       </c>
-      <c r="F17" s="3">
-        <v>92</v>
-      </c>
-      <c r="G17" s="3">
-        <v>87</v>
-      </c>
-      <c r="H17" s="3">
-        <v>78</v>
-      </c>
-      <c r="I17" s="3">
-        <v>83</v>
-      </c>
-      <c r="J17" s="2">
-        <v>83</v>
-      </c>
-      <c r="K17" s="3">
-        <v>83</v>
-      </c>
-      <c r="L17" s="3">
-        <v>84</v>
-      </c>
-      <c r="M17" s="3">
-        <v>94</v>
-      </c>
       <c r="N17" s="3">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="O17" s="3">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="P17" s="3">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="3">
-        <v>72</v>
+        <v>21</v>
       </c>
       <c r="R17" s="3">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="S17" s="3">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="T17" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="U17" s="3">
-        <v>91</v>
-      </c>
-      <c r="V17" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="V17" s="3">
+        <v>52</v>
+      </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
@@ -2626,70 +2655,72 @@
       <c r="BE17" s="1"/>
     </row>
     <row r="18" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
-      <c r="A18" s="4" t="s">
-        <v>70</v>
+      <c r="A18" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="B18" s="3">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="D18" s="3">
-        <v>83</v>
-      </c>
-      <c r="E18" s="2">
-        <v>80</v>
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
       </c>
       <c r="F18" s="3">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>70</v>
-      </c>
-      <c r="J18" s="2">
-        <v>71</v>
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
-        <v>49</v>
-      </c>
-      <c r="V18" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
@@ -2727,70 +2758,72 @@
       <c r="BE18" s="1"/>
     </row>
     <row r="19" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
-      <c r="A19" s="5" t="s">
-        <v>67</v>
+      <c r="A19" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="B19" s="3">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C19" s="3">
+        <v>77</v>
+      </c>
+      <c r="D19" s="3">
+        <v>73</v>
+      </c>
+      <c r="E19" s="2">
         <v>80</v>
       </c>
-      <c r="D19" s="3">
-        <v>77</v>
-      </c>
-      <c r="E19" s="2">
-        <v>83</v>
-      </c>
       <c r="F19" s="3">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G19" s="3">
         <v>84</v>
       </c>
       <c r="H19" s="3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I19" s="3">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="J19" s="2">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="K19" s="3">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="L19" s="3">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M19" s="3">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="N19" s="3">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="O19" s="3">
         <v>78</v>
       </c>
       <c r="P19" s="3">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="3">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="R19" s="3">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="S19" s="3">
         <v>84</v>
       </c>
       <c r="T19" s="3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="U19" s="3">
-        <v>66</v>
-      </c>
-      <c r="V19" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="V19" s="3">
+        <v>84</v>
+      </c>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
@@ -2829,43 +2862,43 @@
     </row>
     <row r="20" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A20" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B20" s="3">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C20" s="3">
+        <v>67</v>
+      </c>
+      <c r="D20" s="3">
+        <v>67</v>
+      </c>
+      <c r="E20" s="2">
         <v>77</v>
       </c>
-      <c r="D20" s="3">
-        <v>73</v>
-      </c>
-      <c r="E20" s="2">
-        <v>80</v>
-      </c>
       <c r="F20" s="3">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G20" s="3">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="H20" s="3">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I20" s="3">
         <v>77</v>
       </c>
       <c r="J20" s="2">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="K20" s="3">
+        <v>77</v>
+      </c>
+      <c r="L20" s="3">
+        <v>77</v>
+      </c>
+      <c r="M20" s="3">
         <v>80</v>
-      </c>
-      <c r="L20" s="3">
-        <v>64</v>
-      </c>
-      <c r="M20" s="3">
-        <v>74</v>
       </c>
       <c r="N20" s="3">
         <v>87</v>
@@ -2874,24 +2907,26 @@
         <v>78</v>
       </c>
       <c r="P20" s="3">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="Q20" s="3">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="R20" s="3">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="S20" s="3">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="T20" s="3">
+        <v>70</v>
+      </c>
+      <c r="U20" s="3">
         <v>60</v>
       </c>
-      <c r="U20" s="3">
-        <v>71</v>
-      </c>
-      <c r="V20" s="3"/>
+      <c r="V20" s="3">
+        <v>68</v>
+      </c>
       <c r="W20" s="3"/>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
@@ -2930,69 +2965,71 @@
     </row>
     <row r="21" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="3">
         <v>75</v>
       </c>
       <c r="C21" s="3">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D21" s="3">
         <v>67</v>
       </c>
       <c r="E21" s="2">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F21" s="3">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G21" s="3">
+        <v>68</v>
+      </c>
+      <c r="H21" s="3">
         <v>65</v>
-      </c>
-      <c r="H21" s="3">
-        <v>78</v>
       </c>
       <c r="I21" s="3">
         <v>77</v>
       </c>
       <c r="J21" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K21" s="3">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="L21" s="3">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="M21" s="3">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="N21" s="3">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="O21" s="3">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="P21" s="3">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="Q21" s="3">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="S21" s="3">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="T21" s="3">
         <v>70</v>
       </c>
       <c r="U21" s="3">
-        <v>60</v>
-      </c>
-      <c r="V21" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="V21" s="3">
+        <v>52</v>
+      </c>
       <c r="W21" s="3"/>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
@@ -3031,69 +3068,71 @@
     </row>
     <row r="22" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" s="3">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C22" s="3">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D22" s="3">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E22" s="2">
         <v>67</v>
       </c>
       <c r="F22" s="3">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="J22" s="2">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M22" s="3">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="R22" s="3">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="U22" s="3">
-        <v>34</v>
-      </c>
-      <c r="V22" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
       <c r="W22" s="3"/>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
@@ -3122,7 +3161,7 @@
       <c r="AV22" s="2"/>
       <c r="AW22" s="2"/>
       <c r="AX22" s="2"/>
-      <c r="AY22" s="2"/>
+      <c r="AY22" s="11"/>
       <c r="AZ22" s="2"/>
       <c r="BA22" s="2"/>
       <c r="BB22" s="2"/>
@@ -3135,40 +3174,40 @@
         <v>73</v>
       </c>
       <c r="B23" s="3">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C23" s="3">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D23" s="3">
-        <v>73</v>
-      </c>
-      <c r="E23" s="2">
-        <v>67</v>
+        <v>93</v>
+      </c>
+      <c r="E23" s="3">
+        <v>93</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="I23" s="3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J23" s="2">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="L23" s="3">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
@@ -3180,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>0</v>
@@ -3194,7 +3233,9 @@
       <c r="U23" s="3">
         <v>0</v>
       </c>
-      <c r="V23" s="3"/>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
       <c r="W23" s="3"/>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
@@ -3231,144 +3272,43 @@
       <c r="BD23" s="2"/>
       <c r="BE23" s="1"/>
     </row>
-    <row r="24" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
-      <c r="A24" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="3">
-        <v>60</v>
-      </c>
-      <c r="C24" s="3">
-        <v>90</v>
-      </c>
-      <c r="D24" s="3">
-        <v>93</v>
-      </c>
-      <c r="E24" s="3">
-        <v>93</v>
-      </c>
-      <c r="F24" s="3">
-        <v>92</v>
-      </c>
-      <c r="G24" s="3">
-        <v>100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>90</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="2">
-        <v>86</v>
-      </c>
-      <c r="K24" s="3">
-        <v>87</v>
-      </c>
-      <c r="L24" s="3">
-        <v>42</v>
-      </c>
-      <c r="M24" s="3">
-        <v>89</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="3"/>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
-      <c r="AL24" s="2"/>
-      <c r="AM24" s="2"/>
-      <c r="AN24" s="2"/>
-      <c r="AO24" s="2"/>
-      <c r="AP24" s="2"/>
-      <c r="AQ24" s="2"/>
-      <c r="AR24" s="2"/>
-      <c r="AS24" s="2"/>
-      <c r="AT24" s="2"/>
-      <c r="AU24" s="2"/>
-      <c r="AV24" s="2"/>
-      <c r="AW24" s="2"/>
-      <c r="AX24" s="2"/>
-      <c r="AY24" s="11"/>
-      <c r="AZ24" s="2"/>
-      <c r="BA24" s="2"/>
-      <c r="BB24" s="2"/>
-      <c r="BC24" s="2"/>
-      <c r="BD24" s="2"/>
-      <c r="BE24" s="1"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:BD1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="B1:BD1">
-    <cfRule type="expression" dxfId="9" priority="7">
-      <formula>AVERAGE(B2:B22) &lt; 80</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>AVERAGE(B2:B22) &gt;= 90</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="9">
-      <formula>AVERAGE(B2:B22) &lt; 85</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="10" stopIfTrue="1">
-      <formula>AVERAGE(B2:B22) &lt; 90</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:BD24">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+  <conditionalFormatting sqref="B2:BD23">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="between">
       <formula>1</formula>
       <formula>49</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="13" operator="greaterThan">
       <formula>85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="16" operator="between">
       <formula>70</formula>
       <formula>85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="17" operator="lessThan">
       <formula>70</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:BD1">
+    <cfRule type="expression" dxfId="3" priority="18">
+      <formula>AVERAGE(B2:B21) &lt; 80</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="19">
+      <formula>AVERAGE(B2:B21) &gt;= 90</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="20">
+      <formula>AVERAGE(B2:B21) &lt; 85</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
+      <formula>AVERAGE(B2:B21) &lt; 90</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/data/quizz.xlsx
+++ b/static/data/quizz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DERS\Archive\web\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527A31D4-8B0D-41F2-AA26-079F03F33CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A9DE3E-9E10-48FC-AAA3-8034952FA67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6405" yWindow="225" windowWidth="13665" windowHeight="17055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -272,7 +272,7 @@
     <t>*** Yazılı imtahan (çətin) ***</t>
   </si>
   <si>
-    <t>Uğur</t>
+    <t>Uğur Əzizli</t>
   </si>
 </sst>
 </file>
@@ -463,34 +463,6 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6E0B4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color theme="1"/>
       </font>
@@ -536,6 +508,34 @@
         <patternFill>
           <fgColor theme="0"/>
           <bgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6E0B4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -826,7 +826,7 @@
   <dimension ref="A1:BH23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+      <selection activeCell="X9" sqref="X9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3275,40 +3275,40 @@
   </sheetData>
   <autoFilter ref="A1:BD1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="B1:BD1">
+    <cfRule type="expression" dxfId="9" priority="18">
+      <formula>AVERAGE(B2:B21) &lt; 80</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="19">
+      <formula>AVERAGE(B2:B21) &gt;= 90</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="20">
+      <formula>AVERAGE(B2:B21) &lt; 85</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="21" stopIfTrue="1">
+      <formula>AVERAGE(B2:B21) &lt; 90</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B2:BD23">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="between">
       <formula>1</formula>
       <formula>49</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="13" operator="greaterThan">
       <formula>85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
       <formula>""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="between">
       <formula>70</formula>
       <formula>85</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="17" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="17" operator="lessThan">
       <formula>70</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:BD1">
-    <cfRule type="expression" dxfId="3" priority="18">
-      <formula>AVERAGE(B2:B21) &lt; 80</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="19">
-      <formula>AVERAGE(B2:B21) &gt;= 90</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="20">
-      <formula>AVERAGE(B2:B21) &lt; 85</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="21" stopIfTrue="1">
-      <formula>AVERAGE(B2:B21) &lt; 90</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/data/quizz.xlsx
+++ b/static/data/quizz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DERS\Archive\web\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A9DE3E-9E10-48FC-AAA3-8034952FA67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E7C998-82E2-49FF-8D32-E082004B64B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6405" yWindow="225" windowWidth="13665" windowHeight="17055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -826,7 +826,7 @@
   <dimension ref="A1:BH23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+      <selection activeCell="Y16" sqref="Y16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1073,7 +1073,9 @@
       <c r="V2" s="3">
         <v>100</v>
       </c>
-      <c r="W2" s="3"/>
+      <c r="W2" s="3">
+        <v>100</v>
+      </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
@@ -1176,7 +1178,9 @@
       <c r="V3" s="3">
         <v>100</v>
       </c>
-      <c r="W3" s="3"/>
+      <c r="W3" s="3">
+        <v>100</v>
+      </c>
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
@@ -1279,7 +1283,9 @@
       <c r="V4" s="3">
         <v>100</v>
       </c>
-      <c r="W4" s="3"/>
+      <c r="W4" s="3">
+        <v>100</v>
+      </c>
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
@@ -1382,7 +1388,9 @@
       <c r="V5" s="3">
         <v>84</v>
       </c>
-      <c r="W5" s="3"/>
+      <c r="W5" s="3">
+        <v>71</v>
+      </c>
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
@@ -1485,7 +1493,9 @@
       <c r="V6" s="3">
         <v>88</v>
       </c>
-      <c r="W6" s="3"/>
+      <c r="W6" s="3">
+        <v>94</v>
+      </c>
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
@@ -1588,7 +1598,9 @@
       <c r="V7" s="3">
         <v>76</v>
       </c>
-      <c r="W7" s="3"/>
+      <c r="W7" s="3">
+        <v>74</v>
+      </c>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
@@ -1691,7 +1703,9 @@
       <c r="V8" s="3">
         <v>92</v>
       </c>
-      <c r="W8" s="3"/>
+      <c r="W8" s="3">
+        <v>97</v>
+      </c>
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
@@ -1794,7 +1808,9 @@
       <c r="V9" s="3">
         <v>100</v>
       </c>
-      <c r="W9" s="3"/>
+      <c r="W9" s="3">
+        <v>89</v>
+      </c>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
@@ -1897,7 +1913,9 @@
       <c r="V10" s="3">
         <v>88</v>
       </c>
-      <c r="W10" s="3"/>
+      <c r="W10" s="3">
+        <v>74</v>
+      </c>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
@@ -2000,7 +2018,9 @@
       <c r="V11" s="3">
         <v>92</v>
       </c>
-      <c r="W11" s="3"/>
+      <c r="W11" s="3">
+        <v>100</v>
+      </c>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
@@ -2103,7 +2123,9 @@
       <c r="V12" s="3">
         <v>100</v>
       </c>
-      <c r="W12" s="3"/>
+      <c r="W12" s="3">
+        <v>83</v>
+      </c>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
@@ -2206,7 +2228,9 @@
       <c r="V13" s="3">
         <v>84</v>
       </c>
-      <c r="W13" s="3"/>
+      <c r="W13" s="3">
+        <v>89</v>
+      </c>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
@@ -2309,7 +2333,9 @@
       <c r="V14" s="3">
         <v>96</v>
       </c>
-      <c r="W14" s="3"/>
+      <c r="W14" s="3">
+        <v>94</v>
+      </c>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
@@ -2412,7 +2438,9 @@
       <c r="V15" s="3">
         <v>64</v>
       </c>
-      <c r="W15" s="3"/>
+      <c r="W15" s="3">
+        <v>89</v>
+      </c>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
@@ -2515,7 +2543,9 @@
       <c r="V16" s="3">
         <v>96</v>
       </c>
-      <c r="W16" s="3"/>
+      <c r="W16" s="3">
+        <v>100</v>
+      </c>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
@@ -2618,7 +2648,9 @@
       <c r="V17" s="3">
         <v>52</v>
       </c>
-      <c r="W17" s="3"/>
+      <c r="W17" s="3">
+        <v>57</v>
+      </c>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
@@ -2659,13 +2691,13 @@
         <v>77</v>
       </c>
       <c r="B18" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="C18" s="3">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -2721,7 +2753,9 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-      <c r="W18" s="3"/>
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
@@ -2824,7 +2858,9 @@
       <c r="V19" s="3">
         <v>84</v>
       </c>
-      <c r="W19" s="3"/>
+      <c r="W19" s="3">
+        <v>83</v>
+      </c>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
@@ -2927,7 +2963,9 @@
       <c r="V20" s="3">
         <v>68</v>
       </c>
-      <c r="W20" s="3"/>
+      <c r="W20" s="3">
+        <v>74</v>
+      </c>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
@@ -3030,7 +3068,9 @@
       <c r="V21" s="3">
         <v>52</v>
       </c>
-      <c r="W21" s="3"/>
+      <c r="W21" s="3">
+        <v>66</v>
+      </c>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
@@ -3133,7 +3173,9 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3"/>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
@@ -3236,7 +3278,9 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-      <c r="W23" s="3"/>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>

--- a/static/data/quizz.xlsx
+++ b/static/data/quizz.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DERS\Archive\web\static\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E7C998-82E2-49FF-8D32-E082004B64B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B1815E-5C7E-4B05-9237-214E16483039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6405" yWindow="225" windowWidth="13665" windowHeight="17055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023-2024" sheetId="2" r:id="rId1"/>
@@ -826,7 +826,7 @@
   <dimension ref="A1:BH23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2700,16 +2700,16 @@
         <v>80</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I18" s="3">
         <v>0</v>
@@ -3212,7 +3212,7 @@
       <c r="BE22" s="1"/>
     </row>
     <row r="23" spans="1:57" ht="24.75" x14ac:dyDescent="0.4">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>73</v>
       </c>
       <c r="B23" s="3">
